--- a/COVID-19_DATA.xlsx
+++ b/COVID-19_DATA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="13">
   <si>
     <t>Cumulative  Test positive</t>
   </si>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +88,308 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -120,11 +412,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -138,9 +578,56 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E422"/>
+  <dimension ref="A1:E835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B404" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B816" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A422" sqref="A416:A422"/>
+      <selection pane="bottomRight" activeCell="C822" sqref="C822:C835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5615,7 +6102,7 @@
         <v>89</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E305" t="s">
         <v>9</v>
@@ -5734,7 +6221,7 @@
         <v>95</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E312" t="s">
         <v>9</v>
@@ -7607,6 +8094,7027 @@
         <v>78</v>
       </c>
       <c r="E422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>59</v>
+      </c>
+      <c r="B423" s="4">
+        <v>43947</v>
+      </c>
+      <c r="C423">
+        <v>35</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>781</v>
+      </c>
+      <c r="B424" s="4">
+        <v>43947</v>
+      </c>
+      <c r="C424">
+        <v>176</v>
+      </c>
+      <c r="D424">
+        <v>13</v>
+      </c>
+      <c r="E424" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>318</v>
+      </c>
+      <c r="B425" s="4">
+        <v>43947</v>
+      </c>
+      <c r="C425">
+        <v>219</v>
+      </c>
+      <c r="D425">
+        <v>3</v>
+      </c>
+      <c r="E425" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>245</v>
+      </c>
+      <c r="B426" s="4">
+        <v>43947</v>
+      </c>
+      <c r="C426">
+        <v>29</v>
+      </c>
+      <c r="D426">
+        <v>3</v>
+      </c>
+      <c r="E426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1864</v>
+      </c>
+      <c r="B427" s="4">
+        <v>43947</v>
+      </c>
+      <c r="C427">
+        <v>515</v>
+      </c>
+      <c r="D427">
+        <v>98</v>
+      </c>
+      <c r="E427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>5446</v>
+      </c>
+      <c r="B428" s="4">
+        <v>43947</v>
+      </c>
+      <c r="C428">
+        <v>1183</v>
+      </c>
+      <c r="D428">
+        <v>83</v>
+      </c>
+      <c r="E428" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>4615</v>
+      </c>
+      <c r="B429" s="4">
+        <v>43947</v>
+      </c>
+      <c r="C429">
+        <v>872</v>
+      </c>
+      <c r="D429">
+        <v>81</v>
+      </c>
+      <c r="E429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>65</v>
+      </c>
+      <c r="B430" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C430">
+        <v>35</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>853</v>
+      </c>
+      <c r="B431" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C431">
+        <v>176</v>
+      </c>
+      <c r="D431">
+        <v>14</v>
+      </c>
+      <c r="E431" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>320</v>
+      </c>
+      <c r="B432" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C432">
+        <v>222</v>
+      </c>
+      <c r="D432">
+        <v>3</v>
+      </c>
+      <c r="E432" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>261</v>
+      </c>
+      <c r="B433" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C433">
+        <v>36</v>
+      </c>
+      <c r="D433">
+        <v>4</v>
+      </c>
+      <c r="E433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1984</v>
+      </c>
+      <c r="B434" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C434">
+        <v>533</v>
+      </c>
+      <c r="D434">
+        <v>104</v>
+      </c>
+      <c r="E434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>5640</v>
+      </c>
+      <c r="B435" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C435">
+        <v>1306</v>
+      </c>
+      <c r="D435">
+        <v>91</v>
+      </c>
+      <c r="E435" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>4956</v>
+      </c>
+      <c r="B436" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C436">
+        <v>925</v>
+      </c>
+      <c r="D436">
+        <v>85</v>
+      </c>
+      <c r="E436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>65</v>
+      </c>
+      <c r="B437" s="4">
+        <v>43949</v>
+      </c>
+      <c r="C437">
+        <v>37</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>915</v>
+      </c>
+      <c r="B438" s="4">
+        <v>43949</v>
+      </c>
+      <c r="C438">
+        <v>176</v>
+      </c>
+      <c r="D438">
+        <v>14</v>
+      </c>
+      <c r="E438" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>330</v>
+      </c>
+      <c r="B439" s="4">
+        <v>43949</v>
+      </c>
+      <c r="C439">
+        <v>224</v>
+      </c>
+      <c r="D439">
+        <v>3</v>
+      </c>
+      <c r="E439" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>297</v>
+      </c>
+      <c r="B440" s="4">
+        <v>43949</v>
+      </c>
+      <c r="C440">
+        <v>36</v>
+      </c>
+      <c r="D440">
+        <v>4</v>
+      </c>
+      <c r="E440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2160</v>
+      </c>
+      <c r="B441" s="4">
+        <v>43949</v>
+      </c>
+      <c r="C441">
+        <v>562</v>
+      </c>
+      <c r="D441">
+        <v>114</v>
+      </c>
+      <c r="E441" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>5827</v>
+      </c>
+      <c r="B442" s="4">
+        <v>43949</v>
+      </c>
+      <c r="C442">
+        <v>1427</v>
+      </c>
+      <c r="D442">
+        <v>100</v>
+      </c>
+      <c r="E442" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>5291</v>
+      </c>
+      <c r="B443" s="4">
+        <v>43949</v>
+      </c>
+      <c r="C443">
+        <v>963</v>
+      </c>
+      <c r="D443">
+        <v>92</v>
+      </c>
+      <c r="E443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="9">
+        <v>66</v>
+      </c>
+      <c r="B444" s="8">
+        <v>43950</v>
+      </c>
+      <c r="C444" s="11">
+        <v>37</v>
+      </c>
+      <c r="D444" s="10">
+        <v>0</v>
+      </c>
+      <c r="E444" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="9">
+        <v>978</v>
+      </c>
+      <c r="B445" s="8">
+        <v>43950</v>
+      </c>
+      <c r="C445" s="11">
+        <v>180</v>
+      </c>
+      <c r="D445" s="10">
+        <v>14</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="9">
+        <v>333</v>
+      </c>
+      <c r="B446" s="8">
+        <v>43950</v>
+      </c>
+      <c r="C446" s="11">
+        <v>228</v>
+      </c>
+      <c r="D446" s="10">
+        <v>3</v>
+      </c>
+      <c r="E446" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="9">
+        <v>313</v>
+      </c>
+      <c r="B447" s="8">
+        <v>43950</v>
+      </c>
+      <c r="C447" s="11">
+        <v>44</v>
+      </c>
+      <c r="D447" s="10">
+        <v>4</v>
+      </c>
+      <c r="E447" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="9">
+        <v>2381</v>
+      </c>
+      <c r="B448" s="8">
+        <v>43950</v>
+      </c>
+      <c r="C448" s="11">
+        <v>614</v>
+      </c>
+      <c r="D448" s="10">
+        <v>137</v>
+      </c>
+      <c r="E448" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="9">
+        <v>6061</v>
+      </c>
+      <c r="B449" s="8">
+        <v>43950</v>
+      </c>
+      <c r="C449" s="11">
+        <v>1780</v>
+      </c>
+      <c r="D449" s="10">
+        <v>103</v>
+      </c>
+      <c r="E449" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="9">
+        <v>5695</v>
+      </c>
+      <c r="B450" s="8">
+        <v>43950</v>
+      </c>
+      <c r="C450" s="11">
+        <v>1169</v>
+      </c>
+      <c r="D450" s="10">
+        <v>100</v>
+      </c>
+      <c r="E450" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="11">
+        <v>66</v>
+      </c>
+      <c r="B451" s="8">
+        <v>43951</v>
+      </c>
+      <c r="C451" s="11">
+        <v>43</v>
+      </c>
+      <c r="D451" s="11">
+        <v>0</v>
+      </c>
+      <c r="E451" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="11">
+        <v>1049</v>
+      </c>
+      <c r="B452" s="8">
+        <v>43951</v>
+      </c>
+      <c r="C452" s="11">
+        <v>183</v>
+      </c>
+      <c r="D452" s="11">
+        <v>14</v>
+      </c>
+      <c r="E452" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="11">
+        <v>339</v>
+      </c>
+      <c r="B453" s="8">
+        <v>43951</v>
+      </c>
+      <c r="C453" s="11">
+        <v>248</v>
+      </c>
+      <c r="D453" s="11">
+        <v>3</v>
+      </c>
+      <c r="E453" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="11">
+        <v>343</v>
+      </c>
+      <c r="B454" s="8">
+        <v>43951</v>
+      </c>
+      <c r="C454" s="11">
+        <v>44</v>
+      </c>
+      <c r="D454" s="11">
+        <v>4</v>
+      </c>
+      <c r="E454" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="11">
+        <v>2627</v>
+      </c>
+      <c r="B455" s="8">
+        <v>43951</v>
+      </c>
+      <c r="C455" s="11">
+        <v>654</v>
+      </c>
+      <c r="D455" s="11">
+        <v>146</v>
+      </c>
+      <c r="E455" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="11">
+        <v>6340</v>
+      </c>
+      <c r="B456" s="8">
+        <v>43951</v>
+      </c>
+      <c r="C456" s="11">
+        <v>1921</v>
+      </c>
+      <c r="D456" s="11">
+        <v>106</v>
+      </c>
+      <c r="E456" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="11">
+        <v>6053</v>
+      </c>
+      <c r="B457" s="8">
+        <v>43951</v>
+      </c>
+      <c r="C457" s="11">
+        <v>1222</v>
+      </c>
+      <c r="D457" s="11">
+        <v>112</v>
+      </c>
+      <c r="E457" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>66</v>
+      </c>
+      <c r="B458" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C458">
+        <v>43</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1136</v>
+      </c>
+      <c r="B459" s="8">
+        <v>43952</v>
+      </c>
+      <c r="C459">
+        <v>183</v>
+      </c>
+      <c r="D459">
+        <v>16</v>
+      </c>
+      <c r="E459" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>340</v>
+      </c>
+      <c r="B460" s="8">
+        <v>43952</v>
+      </c>
+      <c r="C460">
+        <v>255</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+      <c r="E460" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>365</v>
+      </c>
+      <c r="B461" s="8">
+        <v>43952</v>
+      </c>
+      <c r="C461">
+        <v>44</v>
+      </c>
+      <c r="D461">
+        <v>4</v>
+      </c>
+      <c r="E461" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2799</v>
+      </c>
+      <c r="B462" s="8">
+        <v>43952</v>
+      </c>
+      <c r="C462">
+        <v>690</v>
+      </c>
+      <c r="D462">
+        <v>161</v>
+      </c>
+      <c r="E462" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>6733</v>
+      </c>
+      <c r="B463" s="8">
+        <v>43952</v>
+      </c>
+      <c r="C463">
+        <v>2205</v>
+      </c>
+      <c r="D463">
+        <v>115</v>
+      </c>
+      <c r="E463" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>6675</v>
+      </c>
+      <c r="B464" s="8">
+        <v>43952</v>
+      </c>
+      <c r="C464">
+        <v>1295</v>
+      </c>
+      <c r="D464">
+        <v>118</v>
+      </c>
+      <c r="E464" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>67</v>
+      </c>
+      <c r="B465" s="4">
+        <v>43953</v>
+      </c>
+      <c r="C465">
+        <v>44</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="12">
+        <v>1172</v>
+      </c>
+      <c r="B466" s="4">
+        <v>43953</v>
+      </c>
+      <c r="C466">
+        <v>183</v>
+      </c>
+      <c r="D466">
+        <v>19</v>
+      </c>
+      <c r="E466" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="12">
+        <v>356</v>
+      </c>
+      <c r="B467" s="8">
+        <v>43953</v>
+      </c>
+      <c r="C467">
+        <v>260</v>
+      </c>
+      <c r="D467">
+        <v>3</v>
+      </c>
+      <c r="E467" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="12">
+        <v>393</v>
+      </c>
+      <c r="B468" s="8">
+        <v>43953</v>
+      </c>
+      <c r="C468">
+        <v>55</v>
+      </c>
+      <c r="D468">
+        <v>4</v>
+      </c>
+      <c r="E468" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="12">
+        <v>2907</v>
+      </c>
+      <c r="B469" s="8">
+        <v>43953</v>
+      </c>
+      <c r="C469">
+        <v>728</v>
+      </c>
+      <c r="D469">
+        <v>172</v>
+      </c>
+      <c r="E469" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="12">
+        <v>7106</v>
+      </c>
+      <c r="B470" s="8">
+        <v>43953</v>
+      </c>
+      <c r="C470">
+        <v>2206</v>
+      </c>
+      <c r="D470">
+        <v>120</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="12">
+        <v>7102</v>
+      </c>
+      <c r="B471" s="8">
+        <v>43953</v>
+      </c>
+      <c r="C471">
+        <v>1341</v>
+      </c>
+      <c r="D471">
+        <v>122</v>
+      </c>
+      <c r="E471" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="12">
+        <v>71</v>
+      </c>
+      <c r="B472" s="4">
+        <v>43954</v>
+      </c>
+      <c r="C472">
+        <v>44</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="12">
+        <v>1218</v>
+      </c>
+      <c r="B473" s="8">
+        <v>43954</v>
+      </c>
+      <c r="C473">
+        <v>197</v>
+      </c>
+      <c r="D473">
+        <v>21</v>
+      </c>
+      <c r="E473" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="12">
+        <v>364</v>
+      </c>
+      <c r="B474" s="8">
+        <v>43954</v>
+      </c>
+      <c r="C474">
+        <v>260</v>
+      </c>
+      <c r="D474">
+        <v>3</v>
+      </c>
+      <c r="E474" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="12">
+        <v>415</v>
+      </c>
+      <c r="B475" s="8">
+        <v>43954</v>
+      </c>
+      <c r="C475">
+        <v>56</v>
+      </c>
+      <c r="D475">
+        <v>4</v>
+      </c>
+      <c r="E475" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="12">
+        <v>3129</v>
+      </c>
+      <c r="B476" s="8">
+        <v>43954</v>
+      </c>
+      <c r="C476">
+        <v>811</v>
+      </c>
+      <c r="D476">
+        <v>180</v>
+      </c>
+      <c r="E476" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="12">
+        <v>7524</v>
+      </c>
+      <c r="B477" s="8">
+        <v>43954</v>
+      </c>
+      <c r="C477">
+        <v>2667</v>
+      </c>
+      <c r="D477">
+        <v>124</v>
+      </c>
+      <c r="E477" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="12">
+        <v>7465</v>
+      </c>
+      <c r="B478" s="8">
+        <v>43954</v>
+      </c>
+      <c r="C478">
+        <v>1555</v>
+      </c>
+      <c r="D478">
+        <v>130</v>
+      </c>
+      <c r="E478" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="12">
+        <v>71</v>
+      </c>
+      <c r="B479" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C479">
+        <v>49</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="12">
+        <v>1321</v>
+      </c>
+      <c r="B480" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C480">
+        <v>197</v>
+      </c>
+      <c r="D480">
+        <v>21</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="12">
+        <v>372</v>
+      </c>
+      <c r="B481" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C481">
+        <v>279</v>
+      </c>
+      <c r="D481">
+        <v>3</v>
+      </c>
+      <c r="E481" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="12">
+        <v>464</v>
+      </c>
+      <c r="B482" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C482">
+        <v>56</v>
+      </c>
+      <c r="D482">
+        <v>4</v>
+      </c>
+      <c r="E482" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="12">
+        <v>3288</v>
+      </c>
+      <c r="B483" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C483">
+        <v>856</v>
+      </c>
+      <c r="D483">
+        <v>185</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="12">
+        <v>8103</v>
+      </c>
+      <c r="B484" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C484">
+        <v>2716</v>
+      </c>
+      <c r="D484">
+        <v>136</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="12">
+        <v>7882</v>
+      </c>
+      <c r="B485" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C485">
+        <v>1629</v>
+      </c>
+      <c r="D485">
+        <v>137</v>
+      </c>
+      <c r="E485" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="12">
+        <v>76</v>
+      </c>
+      <c r="B486" s="4">
+        <v>43956</v>
+      </c>
+      <c r="C486">
+        <v>54</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="12">
+        <v>1495</v>
+      </c>
+      <c r="B487" s="8">
+        <v>43956</v>
+      </c>
+      <c r="C487">
+        <v>206</v>
+      </c>
+      <c r="D487">
+        <v>21</v>
+      </c>
+      <c r="E487" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="12">
+        <v>386</v>
+      </c>
+      <c r="B488" s="8">
+        <v>43956</v>
+      </c>
+      <c r="C488">
+        <v>282</v>
+      </c>
+      <c r="D488">
+        <v>3</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="12">
+        <v>485</v>
+      </c>
+      <c r="B489" s="8">
+        <v>43956</v>
+      </c>
+      <c r="C489">
+        <v>56</v>
+      </c>
+      <c r="D489">
+        <v>4</v>
+      </c>
+      <c r="E489" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="12">
+        <v>3499</v>
+      </c>
+      <c r="B490" s="8">
+        <v>43956</v>
+      </c>
+      <c r="C490">
+        <v>875</v>
+      </c>
+      <c r="D490">
+        <v>194</v>
+      </c>
+      <c r="E490" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="12">
+        <v>8420</v>
+      </c>
+      <c r="B491" s="8">
+        <v>43956</v>
+      </c>
+      <c r="C491">
+        <v>3073</v>
+      </c>
+      <c r="D491">
+        <v>156</v>
+      </c>
+      <c r="E491" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="12">
+        <v>8189</v>
+      </c>
+      <c r="B492" s="8">
+        <v>43956</v>
+      </c>
+      <c r="C492">
+        <v>1671</v>
+      </c>
+      <c r="D492">
+        <v>148</v>
+      </c>
+      <c r="E492" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="12">
+        <v>76</v>
+      </c>
+      <c r="B493" s="8">
+        <v>43957</v>
+      </c>
+      <c r="C493">
+        <v>57</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="12">
+        <v>1659</v>
+      </c>
+      <c r="B494" s="8">
+        <v>43957</v>
+      </c>
+      <c r="C494">
+        <v>209</v>
+      </c>
+      <c r="D494">
+        <v>22</v>
+      </c>
+      <c r="E494" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="12">
+        <v>388</v>
+      </c>
+      <c r="B495" s="8">
+        <v>43957</v>
+      </c>
+      <c r="C495">
+        <v>288</v>
+      </c>
+      <c r="D495">
+        <v>3</v>
+      </c>
+      <c r="E495" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="12">
+        <v>521</v>
+      </c>
+      <c r="B496" s="8">
+        <v>43957</v>
+      </c>
+      <c r="C496">
+        <v>56</v>
+      </c>
+      <c r="D496">
+        <v>4</v>
+      </c>
+      <c r="E496" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="12">
+        <v>3712</v>
+      </c>
+      <c r="B497" s="8">
+        <v>43957</v>
+      </c>
+      <c r="C497">
+        <v>939</v>
+      </c>
+      <c r="D497">
+        <v>203</v>
+      </c>
+      <c r="E497" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="12">
+        <v>9077</v>
+      </c>
+      <c r="B498" s="8">
+        <v>43957</v>
+      </c>
+      <c r="C498">
+        <v>3184</v>
+      </c>
+      <c r="D498">
+        <v>175</v>
+      </c>
+      <c r="E498" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="12">
+        <v>8640</v>
+      </c>
+      <c r="B499" s="8">
+        <v>43957</v>
+      </c>
+      <c r="C499">
+        <v>1731</v>
+      </c>
+      <c r="D499">
+        <v>157</v>
+      </c>
+      <c r="E499" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="12">
+        <v>78</v>
+      </c>
+      <c r="B500" s="4">
+        <v>43958</v>
+      </c>
+      <c r="C500">
+        <v>58</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="12">
+        <v>1725</v>
+      </c>
+      <c r="B501" s="8">
+        <v>43958</v>
+      </c>
+      <c r="C501">
+        <v>209</v>
+      </c>
+      <c r="D501">
+        <v>24</v>
+      </c>
+      <c r="E501" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="12">
+        <v>394</v>
+      </c>
+      <c r="B502" s="8">
+        <v>43958</v>
+      </c>
+      <c r="C502">
+        <v>292</v>
+      </c>
+      <c r="D502">
+        <v>3</v>
+      </c>
+      <c r="E502" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="12">
+        <v>558</v>
+      </c>
+      <c r="B503" s="8">
+        <v>43958</v>
+      </c>
+      <c r="C503">
+        <v>72</v>
+      </c>
+      <c r="D503">
+        <v>4</v>
+      </c>
+      <c r="E503" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="12">
+        <v>3956</v>
+      </c>
+      <c r="B504" s="8">
+        <v>43958</v>
+      </c>
+      <c r="C504">
+        <v>984</v>
+      </c>
+      <c r="D504">
+        <v>209</v>
+      </c>
+      <c r="E504" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="12">
+        <v>10033</v>
+      </c>
+      <c r="B505" s="8">
+        <v>43958</v>
+      </c>
+      <c r="C505">
+        <v>4062</v>
+      </c>
+      <c r="D505">
+        <v>183</v>
+      </c>
+      <c r="E505" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="12">
+        <v>9093</v>
+      </c>
+      <c r="B506" s="8">
+        <v>43958</v>
+      </c>
+      <c r="C506">
+        <v>1853</v>
+      </c>
+      <c r="D506">
+        <v>171</v>
+      </c>
+      <c r="E506" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="12">
+        <v>79</v>
+      </c>
+      <c r="B507" s="4">
+        <v>43959</v>
+      </c>
+      <c r="C507">
+        <v>60</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="12">
+        <v>1876</v>
+      </c>
+      <c r="B508" s="8">
+        <v>43959</v>
+      </c>
+      <c r="C508">
+        <v>222</v>
+      </c>
+      <c r="D508">
+        <v>24</v>
+      </c>
+      <c r="E508" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="12">
+        <v>421</v>
+      </c>
+      <c r="B509" s="8">
+        <v>43959</v>
+      </c>
+      <c r="C509">
+        <v>298</v>
+      </c>
+      <c r="D509">
+        <v>3</v>
+      </c>
+      <c r="E509" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="12">
+        <v>609</v>
+      </c>
+      <c r="B510" s="8">
+        <v>43959</v>
+      </c>
+      <c r="C510">
+        <v>72</v>
+      </c>
+      <c r="D510">
+        <v>4</v>
+      </c>
+      <c r="E510" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="12">
+        <v>4327</v>
+      </c>
+      <c r="B511" s="8">
+        <v>43959</v>
+      </c>
+      <c r="C511">
+        <v>1033</v>
+      </c>
+      <c r="D511">
+        <v>221</v>
+      </c>
+      <c r="E511" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="12">
+        <v>10471</v>
+      </c>
+      <c r="B512" s="8">
+        <v>43959</v>
+      </c>
+      <c r="C512">
+        <v>4131</v>
+      </c>
+      <c r="D512">
+        <v>191</v>
+      </c>
+      <c r="E512" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="12">
+        <v>9691</v>
+      </c>
+      <c r="B513" s="8">
+        <v>43959</v>
+      </c>
+      <c r="C513">
+        <v>1940</v>
+      </c>
+      <c r="D513">
+        <v>175</v>
+      </c>
+      <c r="E513" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="12">
+        <v>86</v>
+      </c>
+      <c r="B514" s="4">
+        <v>43960</v>
+      </c>
+      <c r="C514">
+        <v>60</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="12">
+        <v>1935</v>
+      </c>
+      <c r="B515" s="8">
+        <v>43960</v>
+      </c>
+      <c r="C515">
+        <v>242</v>
+      </c>
+      <c r="D515">
+        <v>24</v>
+      </c>
+      <c r="E515" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="12">
+        <v>430</v>
+      </c>
+      <c r="B516" s="8">
+        <v>43960</v>
+      </c>
+      <c r="C516">
+        <v>303</v>
+      </c>
+      <c r="D516">
+        <v>4</v>
+      </c>
+      <c r="E516" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="12">
+        <v>641</v>
+      </c>
+      <c r="B517" s="8">
+        <v>43960</v>
+      </c>
+      <c r="C517">
+        <v>72</v>
+      </c>
+      <c r="D517">
+        <v>5</v>
+      </c>
+      <c r="E517" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="12">
+        <v>4509</v>
+      </c>
+      <c r="B518" s="8">
+        <v>43960</v>
+      </c>
+      <c r="C518">
+        <v>1086</v>
+      </c>
+      <c r="D518">
+        <v>234</v>
+      </c>
+      <c r="E518" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="12">
+        <v>11093</v>
+      </c>
+      <c r="B519" s="8">
+        <v>43960</v>
+      </c>
+      <c r="C519">
+        <v>4240</v>
+      </c>
+      <c r="D519">
+        <v>192</v>
+      </c>
+      <c r="E519" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="12">
+        <v>10771</v>
+      </c>
+      <c r="B520" s="8">
+        <v>43960</v>
+      </c>
+      <c r="C520">
+        <v>2020</v>
+      </c>
+      <c r="D520">
+        <v>180</v>
+      </c>
+      <c r="E520" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="12">
+        <v>86</v>
+      </c>
+      <c r="B521" s="4">
+        <v>43961</v>
+      </c>
+      <c r="C521">
+        <v>64</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B522" s="8">
+        <v>43961</v>
+      </c>
+      <c r="C522">
+        <v>242</v>
+      </c>
+      <c r="D522">
+        <v>26</v>
+      </c>
+      <c r="E522" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="12">
+        <v>442</v>
+      </c>
+      <c r="B523" s="8">
+        <v>43961</v>
+      </c>
+      <c r="C523">
+        <v>304</v>
+      </c>
+      <c r="D523">
+        <v>4</v>
+      </c>
+      <c r="E523" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="12">
+        <v>679</v>
+      </c>
+      <c r="B524" s="8">
+        <v>43961</v>
+      </c>
+      <c r="C524">
+        <v>72</v>
+      </c>
+      <c r="D524">
+        <v>6</v>
+      </c>
+      <c r="E524" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="12">
+        <v>4669</v>
+      </c>
+      <c r="B525" s="8">
+        <v>43961</v>
+      </c>
+      <c r="C525">
+        <v>1126</v>
+      </c>
+      <c r="D525">
+        <v>245</v>
+      </c>
+      <c r="E525" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="12">
+        <v>11568</v>
+      </c>
+      <c r="B526" s="8">
+        <v>43961</v>
+      </c>
+      <c r="C526">
+        <v>4323</v>
+      </c>
+      <c r="D526">
+        <v>197</v>
+      </c>
+      <c r="E526" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="12">
+        <v>11480</v>
+      </c>
+      <c r="B527" s="8">
+        <v>43961</v>
+      </c>
+      <c r="C527">
+        <v>2081</v>
+      </c>
+      <c r="D527">
+        <v>189</v>
+      </c>
+      <c r="E527" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="12">
+        <v>86</v>
+      </c>
+      <c r="B528" s="4">
+        <v>43962</v>
+      </c>
+      <c r="C528">
+        <v>64</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="12">
+        <v>2061</v>
+      </c>
+      <c r="B529" s="8">
+        <v>43962</v>
+      </c>
+      <c r="C529">
+        <v>242</v>
+      </c>
+      <c r="D529">
+        <v>27</v>
+      </c>
+      <c r="E529" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="12">
+        <v>457</v>
+      </c>
+      <c r="B530" s="8">
+        <v>43962</v>
+      </c>
+      <c r="C530">
+        <v>320</v>
+      </c>
+      <c r="D530">
+        <v>4</v>
+      </c>
+      <c r="E530" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="12">
+        <v>716</v>
+      </c>
+      <c r="B531" s="8">
+        <v>43962</v>
+      </c>
+      <c r="C531">
+        <v>72</v>
+      </c>
+      <c r="D531">
+        <v>6</v>
+      </c>
+      <c r="E531" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="12">
+        <v>4875</v>
+      </c>
+      <c r="B532" s="8">
+        <v>43962</v>
+      </c>
+      <c r="C532">
+        <v>1256</v>
+      </c>
+      <c r="D532">
+        <v>257</v>
+      </c>
+      <c r="E532" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="12">
+        <v>11869</v>
+      </c>
+      <c r="B533" s="8">
+        <v>43962</v>
+      </c>
+      <c r="C533">
+        <v>4452</v>
+      </c>
+      <c r="D533">
+        <v>211</v>
+      </c>
+      <c r="E533" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="12">
+        <v>12017</v>
+      </c>
+      <c r="B534" s="8">
+        <v>43962</v>
+      </c>
+      <c r="C534">
+        <v>2149</v>
+      </c>
+      <c r="D534">
+        <v>200</v>
+      </c>
+      <c r="E534" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="12">
+        <v>88</v>
+      </c>
+      <c r="B535" s="4">
+        <v>43963</v>
+      </c>
+      <c r="C535">
+        <v>68</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="12">
+        <v>2158</v>
+      </c>
+      <c r="B536" s="8">
+        <v>43963</v>
+      </c>
+      <c r="C536">
+        <v>256</v>
+      </c>
+      <c r="D536">
+        <v>27</v>
+      </c>
+      <c r="E536" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="12">
+        <v>475</v>
+      </c>
+      <c r="B537" s="8">
+        <v>43963</v>
+      </c>
+      <c r="C537">
+        <v>331</v>
+      </c>
+      <c r="D537">
+        <v>4</v>
+      </c>
+      <c r="E537" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="12">
+        <v>759</v>
+      </c>
+      <c r="B538" s="8">
+        <v>43963</v>
+      </c>
+      <c r="C538">
+        <v>92</v>
+      </c>
+      <c r="D538">
+        <v>6</v>
+      </c>
+      <c r="E538" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="12">
+        <v>5021</v>
+      </c>
+      <c r="B539" s="8">
+        <v>43963</v>
+      </c>
+      <c r="C539">
+        <v>1305</v>
+      </c>
+      <c r="D539">
+        <v>267</v>
+      </c>
+      <c r="E539" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="12">
+        <v>13225</v>
+      </c>
+      <c r="B540" s="8">
+        <v>43963</v>
+      </c>
+      <c r="C540">
+        <v>4531</v>
+      </c>
+      <c r="D540">
+        <v>214</v>
+      </c>
+      <c r="E540" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="12">
+        <v>12610</v>
+      </c>
+      <c r="B541" s="8">
+        <v>43963</v>
+      </c>
+      <c r="C541">
+        <v>2229</v>
+      </c>
+      <c r="D541">
+        <v>218</v>
+      </c>
+      <c r="E541" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="12">
+        <v>91</v>
+      </c>
+      <c r="B542" s="4">
+        <v>43964</v>
+      </c>
+      <c r="C542">
+        <v>69</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="12">
+        <v>2239</v>
+      </c>
+      <c r="B543" s="8">
+        <v>43964</v>
+      </c>
+      <c r="C543">
+        <v>326</v>
+      </c>
+      <c r="D543">
+        <v>27</v>
+      </c>
+      <c r="E543" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="12">
+        <v>482</v>
+      </c>
+      <c r="B544" s="8">
+        <v>43964</v>
+      </c>
+      <c r="C544">
+        <v>337</v>
+      </c>
+      <c r="D544">
+        <v>4</v>
+      </c>
+      <c r="E544" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="12">
+        <v>822</v>
+      </c>
+      <c r="B545" s="8">
+        <v>43964</v>
+      </c>
+      <c r="C545">
+        <v>100</v>
+      </c>
+      <c r="D545">
+        <v>6</v>
+      </c>
+      <c r="E545" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="12">
+        <v>5252</v>
+      </c>
+      <c r="B546" s="8">
+        <v>43964</v>
+      </c>
+      <c r="C546">
+        <v>1392</v>
+      </c>
+      <c r="D546">
+        <v>275</v>
+      </c>
+      <c r="E546" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="12">
+        <v>13561</v>
+      </c>
+      <c r="B547" s="8">
+        <v>43964</v>
+      </c>
+      <c r="C547">
+        <v>4636</v>
+      </c>
+      <c r="D547">
+        <v>223</v>
+      </c>
+      <c r="E547" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="12">
+        <v>13341</v>
+      </c>
+      <c r="B548" s="8">
+        <v>43964</v>
+      </c>
+      <c r="C548">
+        <v>2835</v>
+      </c>
+      <c r="D548">
+        <v>234</v>
+      </c>
+      <c r="E548" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="12">
+        <v>105</v>
+      </c>
+      <c r="B549" s="4">
+        <v>43965</v>
+      </c>
+      <c r="C549">
+        <v>76</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="12">
+        <v>2310</v>
+      </c>
+      <c r="B550" s="8">
+        <v>43965</v>
+      </c>
+      <c r="C550">
+        <v>342</v>
+      </c>
+      <c r="D550">
+        <v>30</v>
+      </c>
+      <c r="E550" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="12">
+        <v>501</v>
+      </c>
+      <c r="B551" s="8">
+        <v>43965</v>
+      </c>
+      <c r="C551">
+        <v>339</v>
+      </c>
+      <c r="D551">
+        <v>4</v>
+      </c>
+      <c r="E551" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="12">
+        <v>866</v>
+      </c>
+      <c r="B552" s="8">
+        <v>43965</v>
+      </c>
+      <c r="C552">
+        <v>100</v>
+      </c>
+      <c r="D552">
+        <v>7</v>
+      </c>
+      <c r="E552" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="12">
+        <v>5423</v>
+      </c>
+      <c r="B553" s="8">
+        <v>43965</v>
+      </c>
+      <c r="C553">
+        <v>1505</v>
+      </c>
+      <c r="D553">
+        <v>284</v>
+      </c>
+      <c r="E553" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="12">
+        <v>13914</v>
+      </c>
+      <c r="B554" s="8">
+        <v>43965</v>
+      </c>
+      <c r="C554">
+        <v>4720</v>
+      </c>
+      <c r="D554">
+        <v>234</v>
+      </c>
+      <c r="E554" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="12">
+        <v>14099</v>
+      </c>
+      <c r="B555" s="8">
+        <v>43965</v>
+      </c>
+      <c r="C555">
+        <v>3073</v>
+      </c>
+      <c r="D555">
+        <v>243</v>
+      </c>
+      <c r="E555" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="12">
+        <v>108</v>
+      </c>
+      <c r="B556" s="4">
+        <v>43966</v>
+      </c>
+      <c r="C556">
+        <v>76</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="12">
+        <v>2457</v>
+      </c>
+      <c r="B557" s="8">
+        <v>43966</v>
+      </c>
+      <c r="C557">
+        <v>383</v>
+      </c>
+      <c r="D557">
+        <v>31</v>
+      </c>
+      <c r="E557" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="12">
+        <v>518</v>
+      </c>
+      <c r="B558" s="8">
+        <v>43966</v>
+      </c>
+      <c r="C558">
+        <v>345</v>
+      </c>
+      <c r="D558">
+        <v>4</v>
+      </c>
+      <c r="E558" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="12">
+        <v>921</v>
+      </c>
+      <c r="B559" s="8">
+        <v>43966</v>
+      </c>
+      <c r="C559">
+        <v>100</v>
+      </c>
+      <c r="D559">
+        <v>7</v>
+      </c>
+      <c r="E559" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="12">
+        <v>5678</v>
+      </c>
+      <c r="B560" s="8">
+        <v>43966</v>
+      </c>
+      <c r="C560">
+        <v>1613</v>
+      </c>
+      <c r="D560">
+        <v>291</v>
+      </c>
+      <c r="E560" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="12">
+        <v>14201</v>
+      </c>
+      <c r="B561" s="8">
+        <v>43966</v>
+      </c>
+      <c r="C561">
+        <v>4757</v>
+      </c>
+      <c r="D561">
+        <v>245</v>
+      </c>
+      <c r="E561" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="12">
+        <v>14916</v>
+      </c>
+      <c r="B562" s="8">
+        <v>43966</v>
+      </c>
+      <c r="C562">
+        <v>3606</v>
+      </c>
+      <c r="D562">
+        <v>255</v>
+      </c>
+      <c r="E562" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="12">
+        <v>112</v>
+      </c>
+      <c r="B563" s="8">
+        <v>43967</v>
+      </c>
+      <c r="C563">
+        <v>77</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="12">
+        <v>2544</v>
+      </c>
+      <c r="B564" s="8">
+        <v>43967</v>
+      </c>
+      <c r="C564">
+        <v>417</v>
+      </c>
+      <c r="D564">
+        <v>36</v>
+      </c>
+      <c r="E564" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="12">
+        <v>527</v>
+      </c>
+      <c r="B565" s="8">
+        <v>43967</v>
+      </c>
+      <c r="C565">
+        <v>348</v>
+      </c>
+      <c r="D565">
+        <v>4</v>
+      </c>
+      <c r="E565" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="12">
+        <v>947</v>
+      </c>
+      <c r="B566" s="8">
+        <v>43967</v>
+      </c>
+      <c r="C566">
+        <v>113</v>
+      </c>
+      <c r="D566">
+        <v>7</v>
+      </c>
+      <c r="E566" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="12">
+        <v>5847</v>
+      </c>
+      <c r="B567" s="8">
+        <v>43967</v>
+      </c>
+      <c r="C567">
+        <v>1699</v>
+      </c>
+      <c r="D567">
+        <v>305</v>
+      </c>
+      <c r="E567" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="12">
+        <v>14584</v>
+      </c>
+      <c r="B568" s="8">
+        <v>43967</v>
+      </c>
+      <c r="C568">
+        <v>4883</v>
+      </c>
+      <c r="D568">
+        <v>252</v>
+      </c>
+      <c r="E568" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="12">
+        <v>15590</v>
+      </c>
+      <c r="B569" s="8">
+        <v>43967</v>
+      </c>
+      <c r="C569">
+        <v>3804</v>
+      </c>
+      <c r="D569">
+        <v>268</v>
+      </c>
+      <c r="E569" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="12">
+        <v>112</v>
+      </c>
+      <c r="B570" s="4">
+        <v>43968</v>
+      </c>
+      <c r="C570">
+        <v>77</v>
+      </c>
+      <c r="D570" s="11">
+        <v>1</v>
+      </c>
+      <c r="E570" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="12">
+        <v>2692</v>
+      </c>
+      <c r="B571" s="8">
+        <v>43968</v>
+      </c>
+      <c r="C571">
+        <v>454</v>
+      </c>
+      <c r="D571" s="11">
+        <v>36</v>
+      </c>
+      <c r="E571" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="12">
+        <v>540</v>
+      </c>
+      <c r="B572" s="8">
+        <v>43968</v>
+      </c>
+      <c r="C572">
+        <v>368</v>
+      </c>
+      <c r="D572" s="11">
+        <v>4</v>
+      </c>
+      <c r="E572" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="12">
+        <v>997</v>
+      </c>
+      <c r="B573" s="8">
+        <v>43968</v>
+      </c>
+      <c r="C573">
+        <v>113</v>
+      </c>
+      <c r="D573" s="11">
+        <v>7</v>
+      </c>
+      <c r="E573" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="12">
+        <v>6061</v>
+      </c>
+      <c r="B574" s="8">
+        <v>43968</v>
+      </c>
+      <c r="C574">
+        <v>1783</v>
+      </c>
+      <c r="D574" s="11">
+        <v>318</v>
+      </c>
+      <c r="E574" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="12">
+        <v>15346</v>
+      </c>
+      <c r="B575" s="8">
+        <v>43968</v>
+      </c>
+      <c r="C575">
+        <v>4918</v>
+      </c>
+      <c r="D575" s="11">
+        <v>260</v>
+      </c>
+      <c r="E575" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="12">
+        <v>16377</v>
+      </c>
+      <c r="B576" s="8">
+        <v>43968</v>
+      </c>
+      <c r="C576">
+        <v>4209</v>
+      </c>
+      <c r="D576" s="11">
+        <v>277</v>
+      </c>
+      <c r="E576" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="12">
+        <v>115</v>
+      </c>
+      <c r="B577" s="4">
+        <v>43969</v>
+      </c>
+      <c r="C577">
+        <v>77</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="12">
+        <v>2820</v>
+      </c>
+      <c r="B578" s="8">
+        <v>43969</v>
+      </c>
+      <c r="C578">
+        <v>524</v>
+      </c>
+      <c r="D578">
+        <v>38</v>
+      </c>
+      <c r="E578" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="12">
+        <v>550</v>
+      </c>
+      <c r="B579" s="8">
+        <v>43969</v>
+      </c>
+      <c r="C579">
+        <v>368</v>
+      </c>
+      <c r="D579">
+        <v>4</v>
+      </c>
+      <c r="E579" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="12">
+        <v>1034</v>
+      </c>
+      <c r="B580" s="8">
+        <v>43969</v>
+      </c>
+      <c r="C580">
+        <v>113</v>
+      </c>
+      <c r="D580">
+        <v>9</v>
+      </c>
+      <c r="E580" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="12">
+        <v>6230</v>
+      </c>
+      <c r="B581" s="8">
+        <v>43969</v>
+      </c>
+      <c r="C581">
+        <v>1944</v>
+      </c>
+      <c r="D581">
+        <v>334</v>
+      </c>
+      <c r="E581" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="12">
+        <v>15976</v>
+      </c>
+      <c r="B582" s="8">
+        <v>43969</v>
+      </c>
+      <c r="C582">
+        <v>4974</v>
+      </c>
+      <c r="D582">
+        <v>273</v>
+      </c>
+      <c r="E582" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="12">
+        <v>17241</v>
+      </c>
+      <c r="B583" s="8">
+        <v>43969</v>
+      </c>
+      <c r="C583">
+        <v>4489</v>
+      </c>
+      <c r="D583">
+        <v>280</v>
+      </c>
+      <c r="E583" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="12">
+        <v>133</v>
+      </c>
+      <c r="B584" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C584">
+        <v>77</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="12">
+        <v>2885</v>
+      </c>
+      <c r="B585" s="8">
+        <v>43970</v>
+      </c>
+      <c r="C585">
+        <v>608</v>
+      </c>
+      <c r="D585">
+        <v>38</v>
+      </c>
+      <c r="E585" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="12">
+        <v>556</v>
+      </c>
+      <c r="B586" s="8">
+        <v>43970</v>
+      </c>
+      <c r="C586">
+        <v>390</v>
+      </c>
+      <c r="D586">
+        <v>4</v>
+      </c>
+      <c r="E586" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="12">
+        <v>1138</v>
+      </c>
+      <c r="B587" s="8">
+        <v>43970</v>
+      </c>
+      <c r="C587">
+        <v>151</v>
+      </c>
+      <c r="D587">
+        <v>9</v>
+      </c>
+      <c r="E587" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="12">
+        <v>6554</v>
+      </c>
+      <c r="B588" s="8">
+        <v>43970</v>
+      </c>
+      <c r="C588">
+        <v>2058</v>
+      </c>
+      <c r="D588">
+        <v>345</v>
+      </c>
+      <c r="E588" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="12">
+        <v>16685</v>
+      </c>
+      <c r="B589" s="8">
+        <v>43970</v>
+      </c>
+      <c r="C589">
+        <v>5076</v>
+      </c>
+      <c r="D589">
+        <v>289</v>
+      </c>
+      <c r="E589" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="12">
+        <v>17947</v>
+      </c>
+      <c r="B590" s="8">
+        <v>43970</v>
+      </c>
+      <c r="C590">
+        <v>4741</v>
+      </c>
+      <c r="D590">
+        <v>299</v>
+      </c>
+      <c r="E590" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="12">
+        <v>148</v>
+      </c>
+      <c r="B591" s="4">
+        <v>43971</v>
+      </c>
+      <c r="C591">
+        <v>79</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" s="12">
+        <v>2968</v>
+      </c>
+      <c r="B592" s="8">
+        <v>43971</v>
+      </c>
+      <c r="C592">
+        <v>636</v>
+      </c>
+      <c r="D592">
+        <v>38</v>
+      </c>
+      <c r="E592" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="12">
+        <v>579</v>
+      </c>
+      <c r="B593" s="8">
+        <v>43971</v>
+      </c>
+      <c r="C593">
+        <v>402</v>
+      </c>
+      <c r="D593">
+        <v>4</v>
+      </c>
+      <c r="E593" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="12">
+        <v>1235</v>
+      </c>
+      <c r="B594" s="8">
+        <v>43971</v>
+      </c>
+      <c r="C594">
+        <v>151</v>
+      </c>
+      <c r="D594">
+        <v>10</v>
+      </c>
+      <c r="E594" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="12">
+        <v>6815</v>
+      </c>
+      <c r="B595" s="8">
+        <v>43971</v>
+      </c>
+      <c r="C595">
+        <v>2130</v>
+      </c>
+      <c r="D595">
+        <v>351</v>
+      </c>
+      <c r="E595" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="12">
+        <v>17382</v>
+      </c>
+      <c r="B596" s="8">
+        <v>43971</v>
+      </c>
+      <c r="C596">
+        <v>5112</v>
+      </c>
+      <c r="D596">
+        <v>297</v>
+      </c>
+      <c r="E596" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="12">
+        <v>18964</v>
+      </c>
+      <c r="B597" s="8">
+        <v>43971</v>
+      </c>
+      <c r="C597">
+        <v>5645</v>
+      </c>
+      <c r="D597">
+        <v>316</v>
+      </c>
+      <c r="E597" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="12">
+        <v>158</v>
+      </c>
+      <c r="B598" s="4">
+        <v>43972</v>
+      </c>
+      <c r="C598">
+        <v>79</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="E598" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="12">
+        <v>3074</v>
+      </c>
+      <c r="B599" s="8">
+        <v>43972</v>
+      </c>
+      <c r="C599">
+        <v>724</v>
+      </c>
+      <c r="D599">
+        <v>39</v>
+      </c>
+      <c r="E599" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="12">
+        <v>602</v>
+      </c>
+      <c r="B600" s="8">
+        <v>43972</v>
+      </c>
+      <c r="C600">
+        <v>412</v>
+      </c>
+      <c r="D600">
+        <v>4</v>
+      </c>
+      <c r="E600" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="12">
+        <v>1326</v>
+      </c>
+      <c r="B601" s="8">
+        <v>43972</v>
+      </c>
+      <c r="C601">
+        <v>151</v>
+      </c>
+      <c r="D601">
+        <v>12</v>
+      </c>
+      <c r="E601" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="12">
+        <v>7155</v>
+      </c>
+      <c r="B602" s="8">
+        <v>43972</v>
+      </c>
+      <c r="C602">
+        <v>2198</v>
+      </c>
+      <c r="D602">
+        <v>365</v>
+      </c>
+      <c r="E602" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="12">
+        <v>18455</v>
+      </c>
+      <c r="B603" s="8">
+        <v>43972</v>
+      </c>
+      <c r="C603">
+        <v>5312</v>
+      </c>
+      <c r="D603">
+        <v>310</v>
+      </c>
+      <c r="E603" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="12">
+        <v>19924</v>
+      </c>
+      <c r="B604" s="8">
+        <v>43972</v>
+      </c>
+      <c r="C604">
+        <v>6325</v>
+      </c>
+      <c r="D604">
+        <v>336</v>
+      </c>
+      <c r="E604" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="12">
+        <v>171</v>
+      </c>
+      <c r="B605" s="4">
+        <v>43973</v>
+      </c>
+      <c r="C605">
+        <v>94</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="12">
+        <v>3198</v>
+      </c>
+      <c r="B606" s="8">
+        <v>43973</v>
+      </c>
+      <c r="C606">
+        <v>762</v>
+      </c>
+      <c r="D606">
+        <v>39</v>
+      </c>
+      <c r="E606" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="12">
+        <v>607</v>
+      </c>
+      <c r="B607" s="8">
+        <v>43973</v>
+      </c>
+      <c r="C607">
+        <v>427</v>
+      </c>
+      <c r="D607">
+        <v>4</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="12">
+        <v>1457</v>
+      </c>
+      <c r="B608" s="8">
+        <v>43973</v>
+      </c>
+      <c r="C608">
+        <v>152</v>
+      </c>
+      <c r="D608">
+        <v>12</v>
+      </c>
+      <c r="E608" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="12">
+        <v>7391</v>
+      </c>
+      <c r="B609" s="8">
+        <v>43973</v>
+      </c>
+      <c r="C609">
+        <v>2297</v>
+      </c>
+      <c r="D609">
+        <v>381</v>
+      </c>
+      <c r="E609" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="12">
+        <v>18730</v>
+      </c>
+      <c r="B610" s="8">
+        <v>43973</v>
+      </c>
+      <c r="C610">
+        <v>5906</v>
+      </c>
+      <c r="D610">
+        <v>324</v>
+      </c>
+      <c r="E610" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="12">
+        <v>20883</v>
+      </c>
+      <c r="B611" s="8">
+        <v>43973</v>
+      </c>
+      <c r="C611">
+        <v>7015</v>
+      </c>
+      <c r="D611">
+        <v>340</v>
+      </c>
+      <c r="E611" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="12">
+        <v>197</v>
+      </c>
+      <c r="B612" s="4">
+        <v>43974</v>
+      </c>
+      <c r="C612">
+        <v>97</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="12">
+        <v>3306</v>
+      </c>
+      <c r="B613" s="8">
+        <v>43974</v>
+      </c>
+      <c r="C613">
+        <v>860</v>
+      </c>
+      <c r="D613">
+        <v>39</v>
+      </c>
+      <c r="E613" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="12">
+        <v>619</v>
+      </c>
+      <c r="B614" s="8">
+        <v>43974</v>
+      </c>
+      <c r="C614">
+        <v>430</v>
+      </c>
+      <c r="D614">
+        <v>4</v>
+      </c>
+      <c r="E614" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="12">
+        <v>1592</v>
+      </c>
+      <c r="B615" s="8">
+        <v>43974</v>
+      </c>
+      <c r="C615">
+        <v>152</v>
+      </c>
+      <c r="D615">
+        <v>14</v>
+      </c>
+      <c r="E615" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="12">
+        <v>7685</v>
+      </c>
+      <c r="B616" s="8">
+        <v>43974</v>
+      </c>
+      <c r="C616">
+        <v>2396</v>
+      </c>
+      <c r="D616">
+        <v>389</v>
+      </c>
+      <c r="E616" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="12">
+        <v>19557</v>
+      </c>
+      <c r="B617" s="8">
+        <v>43974</v>
+      </c>
+      <c r="C617">
+        <v>6050</v>
+      </c>
+      <c r="D617">
+        <v>332</v>
+      </c>
+      <c r="E617" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="12">
+        <v>21645</v>
+      </c>
+      <c r="B618" s="8">
+        <v>43974</v>
+      </c>
+      <c r="C618">
+        <v>7213</v>
+      </c>
+      <c r="D618">
+        <v>354</v>
+      </c>
+      <c r="E618" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="12">
+        <v>209</v>
+      </c>
+      <c r="B619" s="8">
+        <v>43975</v>
+      </c>
+      <c r="C619">
+        <v>99</v>
+      </c>
+      <c r="D619">
+        <v>2</v>
+      </c>
+      <c r="E619" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="12">
+        <v>3407</v>
+      </c>
+      <c r="B620" s="8">
+        <v>43975</v>
+      </c>
+      <c r="C620">
+        <v>875</v>
+      </c>
+      <c r="D620">
+        <v>40</v>
+      </c>
+      <c r="E620" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="12">
+        <v>619</v>
+      </c>
+      <c r="B621" s="8">
+        <v>43975</v>
+      </c>
+      <c r="C621">
+        <v>437</v>
+      </c>
+      <c r="D621">
+        <v>7</v>
+      </c>
+      <c r="E621" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="12">
+        <v>1641</v>
+      </c>
+      <c r="B622" s="8">
+        <v>43975</v>
+      </c>
+      <c r="C622">
+        <v>152</v>
+      </c>
+      <c r="D622">
+        <v>16</v>
+      </c>
+      <c r="E622" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="12">
+        <v>7905</v>
+      </c>
+      <c r="B623" s="8">
+        <v>43975</v>
+      </c>
+      <c r="C623">
+        <v>2469</v>
+      </c>
+      <c r="D623">
+        <v>398</v>
+      </c>
+      <c r="E623" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="12">
+        <v>20077</v>
+      </c>
+      <c r="B624" s="8">
+        <v>43975</v>
+      </c>
+      <c r="C624">
+        <v>6091</v>
+      </c>
+      <c r="D624">
+        <v>337</v>
+      </c>
+      <c r="E624" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="12">
+        <v>22491</v>
+      </c>
+      <c r="B625" s="8">
+        <v>43975</v>
+      </c>
+      <c r="C625">
+        <v>7359</v>
+      </c>
+      <c r="D625">
+        <v>367</v>
+      </c>
+      <c r="E625" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" s="12">
+        <v>211</v>
+      </c>
+      <c r="B626" s="4">
+        <v>43976</v>
+      </c>
+      <c r="C626">
+        <v>99</v>
+      </c>
+      <c r="D626">
+        <v>2</v>
+      </c>
+      <c r="E626" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="12">
+        <v>3468</v>
+      </c>
+      <c r="B627" s="8">
+        <v>43976</v>
+      </c>
+      <c r="C627">
+        <v>993</v>
+      </c>
+      <c r="D627">
+        <v>41</v>
+      </c>
+      <c r="E627" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" s="12">
+        <v>630</v>
+      </c>
+      <c r="B628" s="8">
+        <v>43976</v>
+      </c>
+      <c r="C628">
+        <v>444</v>
+      </c>
+      <c r="D628">
+        <v>8</v>
+      </c>
+      <c r="E628" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" s="12">
+        <v>1728</v>
+      </c>
+      <c r="B629" s="8">
+        <v>43976</v>
+      </c>
+      <c r="C629">
+        <v>152</v>
+      </c>
+      <c r="D629">
+        <v>17</v>
+      </c>
+      <c r="E629" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" s="12">
+        <v>8080</v>
+      </c>
+      <c r="B630" s="8">
+        <v>43976</v>
+      </c>
+      <c r="C630">
+        <v>2529</v>
+      </c>
+      <c r="D630">
+        <v>408</v>
+      </c>
+      <c r="E630" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="12">
+        <v>20654</v>
+      </c>
+      <c r="B631" s="8">
+        <v>43976</v>
+      </c>
+      <c r="C631">
+        <v>6124</v>
+      </c>
+      <c r="D631">
+        <v>352</v>
+      </c>
+      <c r="E631" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" s="12">
+        <v>22934</v>
+      </c>
+      <c r="B632" s="8">
+        <v>43976</v>
+      </c>
+      <c r="C632">
+        <v>7973</v>
+      </c>
+      <c r="D632">
+        <v>369</v>
+      </c>
+      <c r="E632" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" s="12">
+        <v>214</v>
+      </c>
+      <c r="B633" s="4">
+        <v>43977</v>
+      </c>
+      <c r="C633">
+        <v>99</v>
+      </c>
+      <c r="D633">
+        <v>4</v>
+      </c>
+      <c r="E633" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" s="12">
+        <v>3536</v>
+      </c>
+      <c r="B634" s="8">
+        <v>43977</v>
+      </c>
+      <c r="C634">
+        <v>1156</v>
+      </c>
+      <c r="D634">
+        <v>42</v>
+      </c>
+      <c r="E634" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" s="12">
+        <v>638</v>
+      </c>
+      <c r="B635" s="8">
+        <v>43977</v>
+      </c>
+      <c r="C635">
+        <v>457</v>
+      </c>
+      <c r="D635">
+        <v>9</v>
+      </c>
+      <c r="E635" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" s="12">
+        <v>1879</v>
+      </c>
+      <c r="B636" s="8">
+        <v>43977</v>
+      </c>
+      <c r="C636">
+        <v>152</v>
+      </c>
+      <c r="D636">
+        <v>18</v>
+      </c>
+      <c r="E636" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="12">
+        <v>8259</v>
+      </c>
+      <c r="B637" s="8">
+        <v>43977</v>
+      </c>
+      <c r="C637">
+        <v>2578</v>
+      </c>
+      <c r="D637">
+        <v>416</v>
+      </c>
+      <c r="E637" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="12">
+        <v>21118</v>
+      </c>
+      <c r="B638" s="8">
+        <v>43977</v>
+      </c>
+      <c r="C638">
+        <v>6185</v>
+      </c>
+      <c r="D638">
+        <v>362</v>
+      </c>
+      <c r="E638" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="12">
+        <v>23507</v>
+      </c>
+      <c r="B639" s="8">
+        <v>43977</v>
+      </c>
+      <c r="C639">
+        <v>8515</v>
+      </c>
+      <c r="D639">
+        <v>374</v>
+      </c>
+      <c r="E639" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="12">
+        <v>219</v>
+      </c>
+      <c r="B640" s="8">
+        <v>43978</v>
+      </c>
+      <c r="C640">
+        <v>99</v>
+      </c>
+      <c r="D640">
+        <v>5</v>
+      </c>
+      <c r="E640" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" s="12">
+        <v>3616</v>
+      </c>
+      <c r="B641" s="8">
+        <v>43978</v>
+      </c>
+      <c r="C641">
+        <v>1289</v>
+      </c>
+      <c r="D641">
+        <v>41</v>
+      </c>
+      <c r="E641" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="12">
+        <v>651</v>
+      </c>
+      <c r="B642" s="8">
+        <v>43978</v>
+      </c>
+      <c r="C642">
+        <v>463</v>
+      </c>
+      <c r="D642">
+        <v>9</v>
+      </c>
+      <c r="E642" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B643" s="8">
+        <v>43978</v>
+      </c>
+      <c r="C643">
+        <v>152</v>
+      </c>
+      <c r="D643">
+        <v>19</v>
+      </c>
+      <c r="E643" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="12">
+        <v>8483</v>
+      </c>
+      <c r="B644" s="8">
+        <v>43978</v>
+      </c>
+      <c r="C644">
+        <v>2632</v>
+      </c>
+      <c r="D644">
+        <v>425</v>
+      </c>
+      <c r="E644" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="12">
+        <v>22037</v>
+      </c>
+      <c r="B645" s="8">
+        <v>43978</v>
+      </c>
+      <c r="C645">
+        <v>6326</v>
+      </c>
+      <c r="D645">
+        <v>381</v>
+      </c>
+      <c r="E645" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="12">
+        <v>24206</v>
+      </c>
+      <c r="B646" s="8">
+        <v>43978</v>
+      </c>
+      <c r="C646">
+        <v>9270</v>
+      </c>
+      <c r="D646">
+        <v>380</v>
+      </c>
+      <c r="E646" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="12">
+        <v>227</v>
+      </c>
+      <c r="B647" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C647">
+        <v>99</v>
+      </c>
+      <c r="D647">
+        <v>5</v>
+      </c>
+      <c r="E647" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="12">
+        <v>3928</v>
+      </c>
+      <c r="B648" s="8">
+        <v>43979</v>
+      </c>
+      <c r="C648">
+        <v>1354</v>
+      </c>
+      <c r="D648">
+        <v>43</v>
+      </c>
+      <c r="E648" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" s="12">
+        <v>658</v>
+      </c>
+      <c r="B649" s="8">
+        <v>43979</v>
+      </c>
+      <c r="C649">
+        <v>470</v>
+      </c>
+      <c r="D649">
+        <v>9</v>
+      </c>
+      <c r="E649" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="12">
+        <v>2100</v>
+      </c>
+      <c r="B650" s="8">
+        <v>43979</v>
+      </c>
+      <c r="C650">
+        <v>161</v>
+      </c>
+      <c r="D650">
+        <v>22</v>
+      </c>
+      <c r="E650" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="12">
+        <v>8842</v>
+      </c>
+      <c r="B651" s="8">
+        <v>43979</v>
+      </c>
+      <c r="C651">
+        <v>2693</v>
+      </c>
+      <c r="D651">
+        <v>432</v>
+      </c>
+      <c r="E651" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="12">
+        <v>22964</v>
+      </c>
+      <c r="B652" s="8">
+        <v>43979</v>
+      </c>
+      <c r="C652">
+        <v>6338</v>
+      </c>
+      <c r="D652">
+        <v>410</v>
+      </c>
+      <c r="E652" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="12">
+        <v>25309</v>
+      </c>
+      <c r="B653" s="8">
+        <v>43979</v>
+      </c>
+      <c r="C653">
+        <v>11190</v>
+      </c>
+      <c r="D653">
+        <v>396</v>
+      </c>
+      <c r="E653" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="12">
+        <v>234</v>
+      </c>
+      <c r="B654" s="4">
+        <v>43980</v>
+      </c>
+      <c r="C654">
+        <v>105</v>
+      </c>
+      <c r="D654">
+        <v>6</v>
+      </c>
+      <c r="E654" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="12">
+        <v>4087</v>
+      </c>
+      <c r="B655" s="8">
+        <v>43980</v>
+      </c>
+      <c r="C655">
+        <v>1400</v>
+      </c>
+      <c r="D655">
+        <v>46</v>
+      </c>
+      <c r="E655" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="12">
+        <v>660</v>
+      </c>
+      <c r="B656" s="8">
+        <v>43980</v>
+      </c>
+      <c r="C656">
+        <v>477</v>
+      </c>
+      <c r="D656">
+        <v>9</v>
+      </c>
+      <c r="E656" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="12">
+        <v>2192</v>
+      </c>
+      <c r="B657" s="8">
+        <v>43980</v>
+      </c>
+      <c r="C657">
+        <v>161</v>
+      </c>
+      <c r="D657">
+        <v>23</v>
+      </c>
+      <c r="E657" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="12">
+        <v>9067</v>
+      </c>
+      <c r="B658" s="8">
+        <v>43980</v>
+      </c>
+      <c r="C658">
+        <v>2731</v>
+      </c>
+      <c r="D658">
+        <v>445</v>
+      </c>
+      <c r="E658" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" s="12">
+        <v>24104</v>
+      </c>
+      <c r="B659" s="8">
+        <v>43980</v>
+      </c>
+      <c r="C659">
+        <v>6507</v>
+      </c>
+      <c r="D659">
+        <v>439</v>
+      </c>
+      <c r="E659" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" s="12">
+        <v>26113</v>
+      </c>
+      <c r="B660" s="8">
+        <v>43980</v>
+      </c>
+      <c r="C660">
+        <v>12750</v>
+      </c>
+      <c r="D660">
+        <v>427</v>
+      </c>
+      <c r="E660" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="12">
+        <v>251</v>
+      </c>
+      <c r="B661" s="4">
+        <v>43981</v>
+      </c>
+      <c r="C661">
+        <v>159</v>
+      </c>
+      <c r="D661">
+        <v>6</v>
+      </c>
+      <c r="E661" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" s="12">
+        <v>4193</v>
+      </c>
+      <c r="B662" s="8">
+        <v>43981</v>
+      </c>
+      <c r="C662">
+        <v>1471</v>
+      </c>
+      <c r="D662">
+        <v>46</v>
+      </c>
+      <c r="E662" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" s="12">
+        <v>678</v>
+      </c>
+      <c r="B663" s="8">
+        <v>43981</v>
+      </c>
+      <c r="C663">
+        <v>490</v>
+      </c>
+      <c r="D663">
+        <v>11</v>
+      </c>
+      <c r="E663" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" s="12">
+        <v>2418</v>
+      </c>
+      <c r="B664" s="8">
+        <v>43981</v>
+      </c>
+      <c r="C664">
+        <v>169</v>
+      </c>
+      <c r="D664">
+        <v>27</v>
+      </c>
+      <c r="E664" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" s="12">
+        <v>9540</v>
+      </c>
+      <c r="B665" s="8">
+        <v>43981</v>
+      </c>
+      <c r="C665">
+        <v>2809</v>
+      </c>
+      <c r="D665">
+        <v>453</v>
+      </c>
+      <c r="E665" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>25056</v>
+      </c>
+      <c r="B666" s="8">
+        <v>43981</v>
+      </c>
+      <c r="C666">
+        <v>6901</v>
+      </c>
+      <c r="D666">
+        <v>475</v>
+      </c>
+      <c r="E666" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>27360</v>
+      </c>
+      <c r="B667" s="8">
+        <v>43981</v>
+      </c>
+      <c r="C667">
+        <v>13272</v>
+      </c>
+      <c r="D667">
+        <v>465</v>
+      </c>
+      <c r="E667" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>255</v>
+      </c>
+      <c r="B668" s="4">
+        <v>43982</v>
+      </c>
+      <c r="C668">
+        <v>168</v>
+      </c>
+      <c r="D668">
+        <v>6</v>
+      </c>
+      <c r="E668" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>4393</v>
+      </c>
+      <c r="B669" s="8">
+        <v>43982</v>
+      </c>
+      <c r="C669">
+        <v>1507</v>
+      </c>
+      <c r="D669">
+        <v>47</v>
+      </c>
+      <c r="E669" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>711</v>
+      </c>
+      <c r="B670" s="8">
+        <v>43982</v>
+      </c>
+      <c r="C670">
+        <v>496</v>
+      </c>
+      <c r="D670">
+        <v>11</v>
+      </c>
+      <c r="E670" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>2589</v>
+      </c>
+      <c r="B671" s="8">
+        <v>43982</v>
+      </c>
+      <c r="C671">
+        <v>169</v>
+      </c>
+      <c r="D671">
+        <v>28</v>
+      </c>
+      <c r="E671" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>10027</v>
+      </c>
+      <c r="B672" s="8">
+        <v>43982</v>
+      </c>
+      <c r="C672">
+        <v>2912</v>
+      </c>
+      <c r="D672">
+        <v>473</v>
+      </c>
+      <c r="E672" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>26240</v>
+      </c>
+      <c r="B673" s="8">
+        <v>43982</v>
+      </c>
+      <c r="C673">
+        <v>7021</v>
+      </c>
+      <c r="D673">
+        <v>497</v>
+      </c>
+      <c r="E673" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>28245</v>
+      </c>
+      <c r="B674" s="8">
+        <v>43982</v>
+      </c>
+      <c r="C674">
+        <v>13810</v>
+      </c>
+      <c r="D674">
+        <v>481</v>
+      </c>
+      <c r="E674" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>271</v>
+      </c>
+      <c r="B675" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C675">
+        <v>170</v>
+      </c>
+      <c r="D675">
+        <v>6</v>
+      </c>
+      <c r="E675" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>4514</v>
+      </c>
+      <c r="B676" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C676">
+        <v>1565</v>
+      </c>
+      <c r="D676">
+        <v>49</v>
+      </c>
+      <c r="E676" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>738</v>
+      </c>
+      <c r="B677" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C677">
+        <v>527</v>
+      </c>
+      <c r="D677">
+        <v>11</v>
+      </c>
+      <c r="E677" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>2893</v>
+      </c>
+      <c r="B678" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C678">
+        <v>169</v>
+      </c>
+      <c r="D678">
+        <v>30</v>
+      </c>
+      <c r="E678" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>10485</v>
+      </c>
+      <c r="B679" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C679">
+        <v>2973</v>
+      </c>
+      <c r="D679">
+        <v>482</v>
+      </c>
+      <c r="E679" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>27850</v>
+      </c>
+      <c r="B680" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C680">
+        <v>7116</v>
+      </c>
+      <c r="D680">
+        <v>540</v>
+      </c>
+      <c r="E680" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>29647</v>
+      </c>
+      <c r="B681" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C681">
+        <v>14590</v>
+      </c>
+      <c r="D681">
+        <v>503</v>
+      </c>
+      <c r="E681" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>284</v>
+      </c>
+      <c r="B682" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C682">
+        <v>170</v>
+      </c>
+      <c r="D682">
+        <v>7</v>
+      </c>
+      <c r="E682" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>4740</v>
+      </c>
+      <c r="B683" s="8">
+        <v>43984</v>
+      </c>
+      <c r="C683">
+        <v>1733</v>
+      </c>
+      <c r="D683">
+        <v>49</v>
+      </c>
+      <c r="E683" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>779</v>
+      </c>
+      <c r="B684" s="8">
+        <v>43984</v>
+      </c>
+      <c r="C684">
+        <v>529</v>
+      </c>
+      <c r="D684">
+        <v>12</v>
+      </c>
+      <c r="E684" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>3188</v>
+      </c>
+      <c r="B685" s="8">
+        <v>43984</v>
+      </c>
+      <c r="C685">
+        <v>399</v>
+      </c>
+      <c r="D685">
+        <v>34</v>
+      </c>
+      <c r="E685" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>10897</v>
+      </c>
+      <c r="B686" s="8">
+        <v>43984</v>
+      </c>
+      <c r="C686">
+        <v>3085</v>
+      </c>
+      <c r="D686">
+        <v>490</v>
+      </c>
+      <c r="E686" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>29489</v>
+      </c>
+      <c r="B687" s="8">
+        <v>43984</v>
+      </c>
+      <c r="C687">
+        <v>7469</v>
+      </c>
+      <c r="D687">
+        <v>570</v>
+      </c>
+      <c r="E687" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>31086</v>
+      </c>
+      <c r="B688" s="8">
+        <v>43984</v>
+      </c>
+      <c r="C688">
+        <v>15538</v>
+      </c>
+      <c r="D688">
+        <v>526</v>
+      </c>
+      <c r="E688" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>285</v>
+      </c>
+      <c r="B689" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C689">
+        <v>173</v>
+      </c>
+      <c r="D689">
+        <v>7</v>
+      </c>
+      <c r="E689" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>5224</v>
+      </c>
+      <c r="B690" s="8">
+        <v>43985</v>
+      </c>
+      <c r="C690">
+        <v>2021</v>
+      </c>
+      <c r="D690">
+        <v>51</v>
+      </c>
+      <c r="E690" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>824</v>
+      </c>
+      <c r="B691" s="8">
+        <v>43985</v>
+      </c>
+      <c r="C691">
+        <v>532</v>
+      </c>
+      <c r="D691">
+        <v>12</v>
+      </c>
+      <c r="E691" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>3544</v>
+      </c>
+      <c r="B692" s="8">
+        <v>43985</v>
+      </c>
+      <c r="C692">
+        <v>518</v>
+      </c>
+      <c r="D692">
+        <v>38</v>
+      </c>
+      <c r="E692" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>11373</v>
+      </c>
+      <c r="B693" s="8">
+        <v>43985</v>
+      </c>
+      <c r="C693">
+        <v>3150</v>
+      </c>
+      <c r="D693">
+        <v>500</v>
+      </c>
+      <c r="E693" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>31104</v>
+      </c>
+      <c r="B694" s="8">
+        <v>43985</v>
+      </c>
+      <c r="C694">
+        <v>7712</v>
+      </c>
+      <c r="D694">
+        <v>607</v>
+      </c>
+      <c r="E694" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>32910</v>
+      </c>
+      <c r="B695" s="8">
+        <v>43985</v>
+      </c>
+      <c r="C695">
+        <v>16022</v>
+      </c>
+      <c r="D695">
+        <v>555</v>
+      </c>
+      <c r="E695" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>299</v>
+      </c>
+      <c r="B696" s="4">
+        <v>43986</v>
+      </c>
+      <c r="C696">
+        <v>182</v>
+      </c>
+      <c r="D696">
+        <v>7</v>
+      </c>
+      <c r="E696" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>5582</v>
+      </c>
+      <c r="B697" s="8">
+        <v>43986</v>
+      </c>
+      <c r="C697">
+        <v>2037</v>
+      </c>
+      <c r="D697">
+        <v>53</v>
+      </c>
+      <c r="E697" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>852</v>
+      </c>
+      <c r="B698" s="8">
+        <v>43986</v>
+      </c>
+      <c r="C698">
+        <v>541</v>
+      </c>
+      <c r="D698">
+        <v>12</v>
+      </c>
+      <c r="E698" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>3946</v>
+      </c>
+      <c r="B699" s="8">
+        <v>43986</v>
+      </c>
+      <c r="C699">
+        <v>629</v>
+      </c>
+      <c r="D699">
+        <v>41</v>
+      </c>
+      <c r="E699" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>11890</v>
+      </c>
+      <c r="B700" s="8">
+        <v>43986</v>
+      </c>
+      <c r="C700">
+        <v>3221</v>
+      </c>
+      <c r="D700">
+        <v>521</v>
+      </c>
+      <c r="E700" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>33144</v>
+      </c>
+      <c r="B701" s="8">
+        <v>43986</v>
+      </c>
+      <c r="C701">
+        <v>7806</v>
+      </c>
+      <c r="D701">
+        <v>629</v>
+      </c>
+      <c r="E701" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>33536</v>
+      </c>
+      <c r="B702" s="8">
+        <v>43986</v>
+      </c>
+      <c r="C702">
+        <v>16782</v>
+      </c>
+      <c r="D702">
+        <v>575</v>
+      </c>
+      <c r="E702" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>331</v>
+      </c>
+      <c r="B703" s="4">
+        <v>43987</v>
+      </c>
+      <c r="C703">
+        <v>185</v>
+      </c>
+      <c r="D703">
+        <v>8</v>
+      </c>
+      <c r="E703" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>5776</v>
+      </c>
+      <c r="B704" s="8">
+        <v>43987</v>
+      </c>
+      <c r="C704">
+        <v>2110</v>
+      </c>
+      <c r="D704">
+        <v>54</v>
+      </c>
+      <c r="E704" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>897</v>
+      </c>
+      <c r="B705" s="8">
+        <v>43987</v>
+      </c>
+      <c r="C705">
+        <v>551</v>
+      </c>
+      <c r="D705">
+        <v>13</v>
+      </c>
+      <c r="E705" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>4323</v>
+      </c>
+      <c r="B706" s="8">
+        <v>43987</v>
+      </c>
+      <c r="C706">
+        <v>629</v>
+      </c>
+      <c r="D706">
+        <v>45</v>
+      </c>
+      <c r="E706" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>12459</v>
+      </c>
+      <c r="B707" s="8">
+        <v>43987</v>
+      </c>
+      <c r="C707">
+        <v>3366</v>
+      </c>
+      <c r="D707">
+        <v>541</v>
+      </c>
+      <c r="E707" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>35308</v>
+      </c>
+      <c r="B708" s="8">
+        <v>43987</v>
+      </c>
+      <c r="C708">
+        <v>7953</v>
+      </c>
+      <c r="D708">
+        <v>659</v>
+      </c>
+      <c r="E708" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>34889</v>
+      </c>
+      <c r="B709" s="8">
+        <v>43987</v>
+      </c>
+      <c r="C709">
+        <v>17787</v>
+      </c>
+      <c r="D709">
+        <v>615</v>
+      </c>
+      <c r="E709" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>361</v>
+      </c>
+      <c r="B710" s="4">
+        <v>43988</v>
+      </c>
+      <c r="C710">
+        <v>190</v>
+      </c>
+      <c r="D710">
+        <v>8</v>
+      </c>
+      <c r="E710" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>6221</v>
+      </c>
+      <c r="B711" s="8">
+        <v>43988</v>
+      </c>
+      <c r="C711">
+        <v>2175</v>
+      </c>
+      <c r="D711">
+        <v>54</v>
+      </c>
+      <c r="E711" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>927</v>
+      </c>
+      <c r="B712" s="8">
+        <v>43988</v>
+      </c>
+      <c r="C712">
+        <v>573</v>
+      </c>
+      <c r="D712">
+        <v>13</v>
+      </c>
+      <c r="E712" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>4979</v>
+      </c>
+      <c r="B713" s="8">
+        <v>43988</v>
+      </c>
+      <c r="C713">
+        <v>703</v>
+      </c>
+      <c r="D713">
+        <v>49</v>
+      </c>
+      <c r="E713" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>13001</v>
+      </c>
+      <c r="B714" s="8">
+        <v>43988</v>
+      </c>
+      <c r="C714">
+        <v>3450</v>
+      </c>
+      <c r="D714">
+        <v>561</v>
+      </c>
+      <c r="E714" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>37090</v>
+      </c>
+      <c r="B715" s="8">
+        <v>43988</v>
+      </c>
+      <c r="C715">
+        <v>8109</v>
+      </c>
+      <c r="D715">
+        <v>683</v>
+      </c>
+      <c r="E715" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>36364</v>
+      </c>
+      <c r="B716" s="8">
+        <v>43988</v>
+      </c>
+      <c r="C716">
+        <v>18265</v>
+      </c>
+      <c r="D716">
+        <v>634</v>
+      </c>
+      <c r="E716" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>396</v>
+      </c>
+      <c r="B717" s="4">
+        <v>43989</v>
+      </c>
+      <c r="C717">
+        <v>195</v>
+      </c>
+      <c r="D717">
+        <v>8</v>
+      </c>
+      <c r="E717" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>6516</v>
+      </c>
+      <c r="B718" s="8">
+        <v>43989</v>
+      </c>
+      <c r="C718">
+        <v>2313</v>
+      </c>
+      <c r="D718">
+        <v>54</v>
+      </c>
+      <c r="E718" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>932</v>
+      </c>
+      <c r="B719" s="8">
+        <v>43989</v>
+      </c>
+      <c r="C719">
+        <v>577</v>
+      </c>
+      <c r="D719">
+        <v>13</v>
+      </c>
+      <c r="E719" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>5329</v>
+      </c>
+      <c r="B720" s="8">
+        <v>43989</v>
+      </c>
+      <c r="C720">
+        <v>843</v>
+      </c>
+      <c r="D720">
+        <v>52</v>
+      </c>
+      <c r="E720" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>13487</v>
+      </c>
+      <c r="B721" s="8">
+        <v>43989</v>
+      </c>
+      <c r="C721">
+        <v>3542</v>
+      </c>
+      <c r="D721">
+        <v>575</v>
+      </c>
+      <c r="E721" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>38903</v>
+      </c>
+      <c r="B722" s="8">
+        <v>43989</v>
+      </c>
+      <c r="C722">
+        <v>8109</v>
+      </c>
+      <c r="D722">
+        <v>715</v>
+      </c>
+      <c r="E722" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>38108</v>
+      </c>
+      <c r="B723" s="8">
+        <v>43989</v>
+      </c>
+      <c r="C723">
+        <v>18776</v>
+      </c>
+      <c r="D723">
+        <v>650</v>
+      </c>
+      <c r="E723" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>412</v>
+      </c>
+      <c r="B724" s="4">
+        <v>43990</v>
+      </c>
+      <c r="C724">
+        <v>209</v>
+      </c>
+      <c r="D724">
+        <v>9</v>
+      </c>
+      <c r="E724" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>6788</v>
+      </c>
+      <c r="B725" s="8">
+        <v>43990</v>
+      </c>
+      <c r="C725">
+        <v>2360</v>
+      </c>
+      <c r="D725">
+        <v>58</v>
+      </c>
+      <c r="E725" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>952</v>
+      </c>
+      <c r="B726" s="8">
+        <v>43990</v>
+      </c>
+      <c r="C726">
+        <v>597</v>
+      </c>
+      <c r="D726">
+        <v>14</v>
+      </c>
+      <c r="E726" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>5785</v>
+      </c>
+      <c r="B727" s="8">
+        <v>43990</v>
+      </c>
+      <c r="C727">
+        <v>843</v>
+      </c>
+      <c r="D727">
+        <v>52</v>
+      </c>
+      <c r="E727" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>14006</v>
+      </c>
+      <c r="B728" s="8">
+        <v>43990</v>
+      </c>
+      <c r="C728">
+        <v>3579</v>
+      </c>
+      <c r="D728">
+        <v>587</v>
+      </c>
+      <c r="E728" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>40819</v>
+      </c>
+      <c r="B729" s="8">
+        <v>43990</v>
+      </c>
+      <c r="C729">
+        <v>8293</v>
+      </c>
+      <c r="D729">
+        <v>773</v>
+      </c>
+      <c r="E729" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>39555</v>
+      </c>
+      <c r="B730" s="8">
+        <v>43990</v>
+      </c>
+      <c r="C730">
+        <v>19137</v>
+      </c>
+      <c r="D730">
+        <v>679</v>
+      </c>
+      <c r="E730" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>444</v>
+      </c>
+      <c r="B731" s="4">
+        <v>43991</v>
+      </c>
+      <c r="C731">
+        <v>217</v>
+      </c>
+      <c r="D731">
+        <v>9</v>
+      </c>
+      <c r="E731" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>7031</v>
+      </c>
+      <c r="B732" s="4">
+        <v>43991</v>
+      </c>
+      <c r="C732">
+        <v>2462</v>
+      </c>
+      <c r="D732">
+        <v>62</v>
+      </c>
+      <c r="E732" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>974</v>
+      </c>
+      <c r="B733" s="8">
+        <v>43991</v>
+      </c>
+      <c r="C733">
+        <v>616</v>
+      </c>
+      <c r="D733">
+        <v>14</v>
+      </c>
+      <c r="E733" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>5963</v>
+      </c>
+      <c r="B734" s="8">
+        <v>43991</v>
+      </c>
+      <c r="C734">
+        <v>843</v>
+      </c>
+      <c r="D734">
+        <v>57</v>
+      </c>
+      <c r="E734" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>14527</v>
+      </c>
+      <c r="B735" s="8">
+        <v>43991</v>
+      </c>
+      <c r="C735">
+        <v>3631</v>
+      </c>
+      <c r="D735">
+        <v>610</v>
+      </c>
+      <c r="E735" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>43460</v>
+      </c>
+      <c r="B736" s="8">
+        <v>43991</v>
+      </c>
+      <c r="C736">
+        <v>8643</v>
+      </c>
+      <c r="D736">
+        <v>807</v>
+      </c>
+      <c r="E736" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>41303</v>
+      </c>
+      <c r="B737" s="8">
+        <v>43991</v>
+      </c>
+      <c r="C737">
+        <v>19896</v>
+      </c>
+      <c r="D737">
+        <v>696</v>
+      </c>
+      <c r="E737" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>488</v>
+      </c>
+      <c r="B738" s="4">
+        <v>43992</v>
+      </c>
+      <c r="C738">
+        <v>219</v>
+      </c>
+      <c r="D738">
+        <v>9</v>
+      </c>
+      <c r="E738" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>7335</v>
+      </c>
+      <c r="B739" s="8">
+        <v>43992</v>
+      </c>
+      <c r="C739">
+        <v>2592</v>
+      </c>
+      <c r="D739">
+        <v>73</v>
+      </c>
+      <c r="E739" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>1018</v>
+      </c>
+      <c r="B740" s="8">
+        <v>43992</v>
+      </c>
+      <c r="C740">
+        <v>633</v>
+      </c>
+      <c r="D740">
+        <v>14</v>
+      </c>
+      <c r="E740" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>6236</v>
+      </c>
+      <c r="B741" s="8">
+        <v>43992</v>
+      </c>
+      <c r="C741">
+        <v>1164</v>
+      </c>
+      <c r="D741">
+        <v>62</v>
+      </c>
+      <c r="E741" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>15206</v>
+      </c>
+      <c r="B742" s="8">
+        <v>43992</v>
+      </c>
+      <c r="C742">
+        <v>3771</v>
+      </c>
+      <c r="D742">
+        <v>619</v>
+      </c>
+      <c r="E742" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>45463</v>
+      </c>
+      <c r="B743" s="8">
+        <v>43992</v>
+      </c>
+      <c r="C743">
+        <v>9005</v>
+      </c>
+      <c r="D743">
+        <v>841</v>
+      </c>
+      <c r="E743" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>43790</v>
+      </c>
+      <c r="B744" s="8">
+        <v>43992</v>
+      </c>
+      <c r="C744">
+        <v>21007</v>
+      </c>
+      <c r="D744">
+        <v>738</v>
+      </c>
+      <c r="E744" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" s="11">
+        <v>534</v>
+      </c>
+      <c r="B745" s="8">
+        <v>43993</v>
+      </c>
+      <c r="C745" s="11">
+        <v>237</v>
+      </c>
+      <c r="D745" s="11">
+        <v>10</v>
+      </c>
+      <c r="E745" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" s="11">
+        <v>7673</v>
+      </c>
+      <c r="B746" s="8">
+        <v>43993</v>
+      </c>
+      <c r="C746" s="11">
+        <v>2673</v>
+      </c>
+      <c r="D746" s="11">
+        <v>75</v>
+      </c>
+      <c r="E746" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" s="11">
+        <v>1030</v>
+      </c>
+      <c r="B747" s="8">
+        <v>43993</v>
+      </c>
+      <c r="C747" s="11">
+        <v>673</v>
+      </c>
+      <c r="D747" s="11">
+        <v>15</v>
+      </c>
+      <c r="E747" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" s="11">
+        <v>6699</v>
+      </c>
+      <c r="B748" s="8">
+        <v>43993</v>
+      </c>
+      <c r="C748" s="11">
+        <v>1164</v>
+      </c>
+      <c r="D748" s="11">
+        <v>65</v>
+      </c>
+      <c r="E748" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" s="11">
+        <v>15787</v>
+      </c>
+      <c r="B749" s="8">
+        <v>43993</v>
+      </c>
+      <c r="C749" s="11">
+        <v>3907</v>
+      </c>
+      <c r="D749" s="11">
+        <v>632</v>
+      </c>
+      <c r="E749" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" s="11">
+        <v>47382</v>
+      </c>
+      <c r="B750" s="8">
+        <v>43993</v>
+      </c>
+      <c r="C750" s="11">
+        <v>9546</v>
+      </c>
+      <c r="D750" s="11">
+        <v>890</v>
+      </c>
+      <c r="E750" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" s="11">
+        <v>46828</v>
+      </c>
+      <c r="B751" s="8">
+        <v>43993</v>
+      </c>
+      <c r="C751" s="11">
+        <v>22047</v>
+      </c>
+      <c r="D751" s="11">
+        <v>776</v>
+      </c>
+      <c r="E751" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" s="11">
+        <v>574</v>
+      </c>
+      <c r="B752" s="8">
+        <v>43994</v>
+      </c>
+      <c r="C752" s="11">
+        <v>242</v>
+      </c>
+      <c r="D752" s="11">
+        <v>11</v>
+      </c>
+      <c r="E752" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" s="11">
+        <v>7866</v>
+      </c>
+      <c r="B753" s="8">
+        <v>43994</v>
+      </c>
+      <c r="C753" s="11">
+        <v>2722</v>
+      </c>
+      <c r="D753" s="11">
+        <v>80</v>
+      </c>
+      <c r="E753" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" s="11">
+        <v>1044</v>
+      </c>
+      <c r="B754" s="8">
+        <v>43994</v>
+      </c>
+      <c r="C754" s="11">
+        <v>676</v>
+      </c>
+      <c r="D754" s="11">
+        <v>16</v>
+      </c>
+      <c r="E754" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" s="11">
+        <v>7163</v>
+      </c>
+      <c r="B755" s="8">
+        <v>43994</v>
+      </c>
+      <c r="C755" s="11">
+        <v>1671</v>
+      </c>
+      <c r="D755" s="11">
+        <v>71</v>
+      </c>
+      <c r="E755" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" s="11">
+        <v>16415</v>
+      </c>
+      <c r="B756" s="8">
+        <v>43994</v>
+      </c>
+      <c r="C756" s="11">
+        <v>4072</v>
+      </c>
+      <c r="D756" s="11">
+        <v>642</v>
+      </c>
+      <c r="E756" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" s="11">
+        <v>50087</v>
+      </c>
+      <c r="B757" s="8">
+        <v>43994</v>
+      </c>
+      <c r="C757" s="11">
+        <v>17560</v>
+      </c>
+      <c r="D757" s="11">
+        <v>938</v>
+      </c>
+      <c r="E757" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" s="11">
+        <v>49256</v>
+      </c>
+      <c r="B758" s="8">
+        <v>43994</v>
+      </c>
+      <c r="C758" s="11">
+        <v>23113</v>
+      </c>
+      <c r="D758" s="11">
+        <v>793</v>
+      </c>
+      <c r="E758" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>604</v>
+      </c>
+      <c r="B759" s="4">
+        <v>43995</v>
+      </c>
+      <c r="C759">
+        <v>250</v>
+      </c>
+      <c r="D759">
+        <v>12</v>
+      </c>
+      <c r="E759" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>8028</v>
+      </c>
+      <c r="B760" s="8">
+        <v>43995</v>
+      </c>
+      <c r="C760">
+        <v>2795</v>
+      </c>
+      <c r="D760">
+        <v>83</v>
+      </c>
+      <c r="E760" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>1095</v>
+      </c>
+      <c r="B761" s="8">
+        <v>43995</v>
+      </c>
+      <c r="C761">
+        <v>691</v>
+      </c>
+      <c r="D761">
+        <v>16</v>
+      </c>
+      <c r="E761" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>7934</v>
+      </c>
+      <c r="B762" s="8">
+        <v>43995</v>
+      </c>
+      <c r="C762">
+        <v>1671</v>
+      </c>
+      <c r="D762">
+        <v>75</v>
+      </c>
+      <c r="E762" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>17450</v>
+      </c>
+      <c r="B763" s="8">
+        <v>43995</v>
+      </c>
+      <c r="C763">
+        <v>4291</v>
+      </c>
+      <c r="D763">
+        <v>661</v>
+      </c>
+      <c r="E763" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>52601</v>
+      </c>
+      <c r="B764" s="8">
+        <v>43995</v>
+      </c>
+      <c r="C764">
+        <v>17650</v>
+      </c>
+      <c r="D764">
+        <v>969</v>
+      </c>
+      <c r="E764" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>51518</v>
+      </c>
+      <c r="B765" s="8">
+        <v>43995</v>
+      </c>
+      <c r="C765">
+        <v>24387</v>
+      </c>
+      <c r="D765">
+        <v>816</v>
+      </c>
+      <c r="E765" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>647</v>
+      </c>
+      <c r="B766" s="4">
+        <v>43996</v>
+      </c>
+      <c r="C766">
+        <v>254</v>
+      </c>
+      <c r="D766">
+        <v>13</v>
+      </c>
+      <c r="E766" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>8177</v>
+      </c>
+      <c r="B767" s="4">
+        <v>43996</v>
+      </c>
+      <c r="C767">
+        <v>2859</v>
+      </c>
+      <c r="D767">
+        <v>85</v>
+      </c>
+      <c r="E767" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>1129</v>
+      </c>
+      <c r="B768" s="8">
+        <v>43996</v>
+      </c>
+      <c r="C768">
+        <v>716</v>
+      </c>
+      <c r="D768">
+        <v>16</v>
+      </c>
+      <c r="E768" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>8569</v>
+      </c>
+      <c r="B769" s="8">
+        <v>43996</v>
+      </c>
+      <c r="C769">
+        <v>2037</v>
+      </c>
+      <c r="D769">
+        <v>78</v>
+      </c>
+      <c r="E769" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>18013</v>
+      </c>
+      <c r="B770" s="8">
+        <v>43996</v>
+      </c>
+      <c r="C770">
+        <v>4539</v>
+      </c>
+      <c r="D770">
+        <v>675</v>
+      </c>
+      <c r="E770" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>54138</v>
+      </c>
+      <c r="B771" s="8">
+        <v>43996</v>
+      </c>
+      <c r="C771">
+        <v>17710</v>
+      </c>
+      <c r="D771">
+        <v>1031</v>
+      </c>
+      <c r="E771" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>53805</v>
+      </c>
+      <c r="B772" s="8">
+        <v>43996</v>
+      </c>
+      <c r="C772">
+        <v>25606</v>
+      </c>
+      <c r="D772">
+        <v>831</v>
+      </c>
+      <c r="E772" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>663</v>
+      </c>
+      <c r="B773" s="4">
+        <v>43997</v>
+      </c>
+      <c r="C773">
+        <v>264</v>
+      </c>
+      <c r="D773">
+        <v>13</v>
+      </c>
+      <c r="E773" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>8327</v>
+      </c>
+      <c r="B774" s="8">
+        <v>43997</v>
+      </c>
+      <c r="C774">
+        <v>2916</v>
+      </c>
+      <c r="D774">
+        <v>85</v>
+      </c>
+      <c r="E774" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>1143</v>
+      </c>
+      <c r="B775" s="8">
+        <v>43997</v>
+      </c>
+      <c r="C775">
+        <v>728</v>
+      </c>
+      <c r="D775">
+        <v>17</v>
+      </c>
+      <c r="E775" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>8857</v>
+      </c>
+      <c r="B776" s="8">
+        <v>43997</v>
+      </c>
+      <c r="C776">
+        <v>2037</v>
+      </c>
+      <c r="D776">
+        <v>83</v>
+      </c>
+      <c r="E776" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>18472</v>
+      </c>
+      <c r="B777" s="8">
+        <v>43997</v>
+      </c>
+      <c r="C777">
+        <v>4692</v>
+      </c>
+      <c r="D777">
+        <v>707</v>
+      </c>
+      <c r="E777" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>55878</v>
+      </c>
+      <c r="B778" s="8">
+        <v>43997</v>
+      </c>
+      <c r="C778">
+        <v>17730</v>
+      </c>
+      <c r="D778">
+        <v>1081</v>
+      </c>
+      <c r="E778" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>55581</v>
+      </c>
+      <c r="B779" s="8">
+        <v>43997</v>
+      </c>
+      <c r="C779">
+        <v>28023</v>
+      </c>
+      <c r="D779">
+        <v>853</v>
+      </c>
+      <c r="E779" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" s="11">
+        <v>703</v>
+      </c>
+      <c r="B780" s="8">
+        <v>43998</v>
+      </c>
+      <c r="C780" s="11">
+        <v>290</v>
+      </c>
+      <c r="D780" s="11">
+        <v>13</v>
+      </c>
+      <c r="E780" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" s="11">
+        <v>8437</v>
+      </c>
+      <c r="B781" s="8">
+        <v>43998</v>
+      </c>
+      <c r="C781" s="11">
+        <v>3023</v>
+      </c>
+      <c r="D781" s="11">
+        <v>89</v>
+      </c>
+      <c r="E781" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" s="11">
+        <v>1164</v>
+      </c>
+      <c r="B782" s="8">
+        <v>43998</v>
+      </c>
+      <c r="C782" s="11">
+        <v>738</v>
+      </c>
+      <c r="D782" s="11">
+        <v>17</v>
+      </c>
+      <c r="E782" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" s="11">
+        <v>9242</v>
+      </c>
+      <c r="B783" s="8">
+        <v>43998</v>
+      </c>
+      <c r="C783" s="11">
+        <v>2439</v>
+      </c>
+      <c r="D783" s="11">
+        <v>90</v>
+      </c>
+      <c r="E783" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" s="11">
+        <v>19107</v>
+      </c>
+      <c r="B784" s="8">
+        <v>43998</v>
+      </c>
+      <c r="C784" s="11">
+        <v>4922</v>
+      </c>
+      <c r="D784" s="11">
+        <v>731</v>
+      </c>
+      <c r="E784" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" s="11">
+        <v>58239</v>
+      </c>
+      <c r="B785" s="8">
+        <v>43998</v>
+      </c>
+      <c r="C785" s="11">
+        <v>17780</v>
+      </c>
+      <c r="D785" s="11">
+        <v>1149</v>
+      </c>
+      <c r="E785" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" s="11">
+        <v>57868</v>
+      </c>
+      <c r="B786" s="8">
+        <v>43998</v>
+      </c>
+      <c r="C786" s="11">
+        <v>29245</v>
+      </c>
+      <c r="D786" s="11">
+        <v>886</v>
+      </c>
+      <c r="E786" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>740</v>
+      </c>
+      <c r="B787" s="4">
+        <v>43999</v>
+      </c>
+      <c r="C787">
+        <v>302</v>
+      </c>
+      <c r="D787">
+        <v>15</v>
+      </c>
+      <c r="E787" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>8794</v>
+      </c>
+      <c r="B788" s="8">
+        <v>43999</v>
+      </c>
+      <c r="C788">
+        <v>3051</v>
+      </c>
+      <c r="D788">
+        <v>93</v>
+      </c>
+      <c r="E788" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>1213</v>
+      </c>
+      <c r="B789" s="8">
+        <v>43999</v>
+      </c>
+      <c r="C789">
+        <v>768</v>
+      </c>
+      <c r="D789">
+        <v>18</v>
+      </c>
+      <c r="E789" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>9637</v>
+      </c>
+      <c r="B790" s="8">
+        <v>43999</v>
+      </c>
+      <c r="C790">
+        <v>2439</v>
+      </c>
+      <c r="D790">
+        <v>94</v>
+      </c>
+      <c r="E790" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>19613</v>
+      </c>
+      <c r="B791" s="8">
+        <v>43999</v>
+      </c>
+      <c r="C791">
+        <v>5137</v>
+      </c>
+      <c r="D791">
+        <v>755</v>
+      </c>
+      <c r="E791" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>60138</v>
+      </c>
+      <c r="B792" s="8">
+        <v>43999</v>
+      </c>
+      <c r="C792">
+        <v>17825</v>
+      </c>
+      <c r="D792">
+        <v>1202</v>
+      </c>
+      <c r="E792" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>59983</v>
+      </c>
+      <c r="B793" s="8">
+        <v>43999</v>
+      </c>
+      <c r="C793">
+        <v>29693</v>
+      </c>
+      <c r="D793">
+        <v>916</v>
+      </c>
+      <c r="E793" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>769</v>
+      </c>
+      <c r="B794" s="4">
+        <v>44000</v>
+      </c>
+      <c r="C794">
+        <v>312</v>
+      </c>
+      <c r="D794">
+        <v>15</v>
+      </c>
+      <c r="E794" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>8998</v>
+      </c>
+      <c r="B795" s="8">
+        <v>44000</v>
+      </c>
+      <c r="C795">
+        <v>3140</v>
+      </c>
+      <c r="D795">
+        <v>99</v>
+      </c>
+      <c r="E795" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>1225</v>
+      </c>
+      <c r="B796" s="8">
+        <v>44000</v>
+      </c>
+      <c r="C796">
+        <v>794</v>
+      </c>
+      <c r="D796">
+        <v>18</v>
+      </c>
+      <c r="E796" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>9941</v>
+      </c>
+      <c r="B797" s="8">
+        <v>44000</v>
+      </c>
+      <c r="C797">
+        <v>2770</v>
+      </c>
+      <c r="D797">
+        <v>95</v>
+      </c>
+      <c r="E797" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>20182</v>
+      </c>
+      <c r="B798" s="8">
+        <v>44000</v>
+      </c>
+      <c r="C798">
+        <v>5441</v>
+      </c>
+      <c r="D798">
+        <v>773</v>
+      </c>
+      <c r="E798" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>61678</v>
+      </c>
+      <c r="B799" s="8">
+        <v>44000</v>
+      </c>
+      <c r="C799">
+        <v>17892</v>
+      </c>
+      <c r="D799">
+        <v>1265</v>
+      </c>
+      <c r="E799" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>62269</v>
+      </c>
+      <c r="B800" s="8">
+        <v>44000</v>
+      </c>
+      <c r="C800">
+        <v>31034</v>
+      </c>
+      <c r="D800">
+        <v>964</v>
+      </c>
+      <c r="E800" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>803</v>
+      </c>
+      <c r="B801" s="4">
+        <v>44001</v>
+      </c>
+      <c r="C801">
+        <v>317</v>
+      </c>
+      <c r="D801">
+        <v>17</v>
+      </c>
+      <c r="E801" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>9162</v>
+      </c>
+      <c r="B802" s="8">
+        <v>44001</v>
+      </c>
+      <c r="C802">
+        <v>3289</v>
+      </c>
+      <c r="D802">
+        <v>100</v>
+      </c>
+      <c r="E802" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>1253</v>
+      </c>
+      <c r="B803" s="8">
+        <v>44001</v>
+      </c>
+      <c r="C803">
+        <v>816</v>
+      </c>
+      <c r="D803">
+        <v>21</v>
+      </c>
+      <c r="E803" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>10279</v>
+      </c>
+      <c r="B804" s="8">
+        <v>44001</v>
+      </c>
+      <c r="C804">
+        <v>2770</v>
+      </c>
+      <c r="D804">
+        <v>95</v>
+      </c>
+      <c r="E804" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>20790</v>
+      </c>
+      <c r="B805" s="8">
+        <v>44001</v>
+      </c>
+      <c r="C805">
+        <v>5623</v>
+      </c>
+      <c r="D805">
+        <v>789</v>
+      </c>
+      <c r="E805" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>64216</v>
+      </c>
+      <c r="B806" s="8">
+        <v>44001</v>
+      </c>
+      <c r="C806">
+        <v>17964</v>
+      </c>
+      <c r="D806">
+        <v>1347</v>
+      </c>
+      <c r="E806" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>65163</v>
+      </c>
+      <c r="B807" s="8">
+        <v>44001</v>
+      </c>
+      <c r="C807">
+        <v>32725</v>
+      </c>
+      <c r="D807">
+        <v>1013</v>
+      </c>
+      <c r="E807" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>813</v>
+      </c>
+      <c r="B808" s="4">
+        <v>44002</v>
+      </c>
+      <c r="C808">
+        <v>336</v>
+      </c>
+      <c r="D808">
+        <v>19</v>
+      </c>
+      <c r="E808" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>9328</v>
+      </c>
+      <c r="B809" s="4">
+        <v>44002</v>
+      </c>
+      <c r="C809">
+        <v>3472</v>
+      </c>
+      <c r="D809">
+        <v>100</v>
+      </c>
+      <c r="E809" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>1278</v>
+      </c>
+      <c r="B810" s="8">
+        <v>44002</v>
+      </c>
+      <c r="C810">
+        <v>837</v>
+      </c>
+      <c r="D810">
+        <v>21</v>
+      </c>
+      <c r="E810" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>10662</v>
+      </c>
+      <c r="B811" s="8">
+        <v>44002</v>
+      </c>
+      <c r="C811">
+        <v>4380</v>
+      </c>
+      <c r="D811">
+        <v>98</v>
+      </c>
+      <c r="E811" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>21444</v>
+      </c>
+      <c r="B812" s="8">
+        <v>44002</v>
+      </c>
+      <c r="C812">
+        <v>6063</v>
+      </c>
+      <c r="D812">
+        <v>808</v>
+      </c>
+      <c r="E812" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>65739</v>
+      </c>
+      <c r="B813" s="8">
+        <v>44002</v>
+      </c>
+      <c r="C813">
+        <v>18692</v>
+      </c>
+      <c r="D813">
+        <v>1407</v>
+      </c>
+      <c r="E813" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>67353</v>
+      </c>
+      <c r="B814" s="8">
+        <v>44002</v>
+      </c>
+      <c r="C814">
+        <v>34112</v>
+      </c>
+      <c r="D814">
+        <v>1048</v>
+      </c>
+      <c r="E814" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>845</v>
+      </c>
+      <c r="B815" s="8">
+        <v>44003</v>
+      </c>
+      <c r="C815">
+        <v>348</v>
+      </c>
+      <c r="D815">
+        <v>20</v>
+      </c>
+      <c r="E815" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>9475</v>
+      </c>
+      <c r="B816" s="8">
+        <v>44003</v>
+      </c>
+      <c r="C816">
+        <v>3650</v>
+      </c>
+      <c r="D816">
+        <v>102</v>
+      </c>
+      <c r="E816" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>1288</v>
+      </c>
+      <c r="B817" s="8">
+        <v>44003</v>
+      </c>
+      <c r="C817">
+        <v>865</v>
+      </c>
+      <c r="D817">
+        <v>22</v>
+      </c>
+      <c r="E817" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>10912</v>
+      </c>
+      <c r="B818" s="8">
+        <v>44003</v>
+      </c>
+      <c r="C818">
+        <v>4681</v>
+      </c>
+      <c r="D818">
+        <v>101</v>
+      </c>
+      <c r="E818" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>21997</v>
+      </c>
+      <c r="B819" s="8">
+        <v>44003</v>
+      </c>
+      <c r="C819">
+        <v>6536</v>
+      </c>
+      <c r="D819">
+        <v>821</v>
+      </c>
+      <c r="E819" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>66943</v>
+      </c>
+      <c r="B820" s="8">
+        <v>44003</v>
+      </c>
+      <c r="C820">
+        <v>19100</v>
+      </c>
+      <c r="D820">
+        <v>1435</v>
+      </c>
+      <c r="E820" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>69628</v>
+      </c>
+      <c r="B821" s="8">
+        <v>44003</v>
+      </c>
+      <c r="C821">
+        <v>36278</v>
+      </c>
+      <c r="D821">
+        <v>1089</v>
+      </c>
+      <c r="E821" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>869</v>
+      </c>
+      <c r="B822" s="4">
+        <v>44004</v>
+      </c>
+      <c r="C822">
+        <v>350</v>
+      </c>
+      <c r="D822">
+        <v>22</v>
+      </c>
+      <c r="E822" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>9587</v>
+      </c>
+      <c r="B823" s="8">
+        <v>44004</v>
+      </c>
+      <c r="C823">
+        <v>3670</v>
+      </c>
+      <c r="D823">
+        <v>104</v>
+      </c>
+      <c r="E823" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>1326</v>
+      </c>
+      <c r="B824" s="8">
+        <v>44004</v>
+      </c>
+      <c r="C824">
+        <v>946</v>
+      </c>
+      <c r="D824">
+        <v>22</v>
+      </c>
+      <c r="E824" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>11219</v>
+      </c>
+      <c r="B825" s="8">
+        <v>44004</v>
+      </c>
+      <c r="C825">
+        <v>5012</v>
+      </c>
+      <c r="D825">
+        <v>106</v>
+      </c>
+      <c r="E825" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>22633</v>
+      </c>
+      <c r="B826" s="8">
+        <v>44004</v>
+      </c>
+      <c r="C826">
+        <v>6869</v>
+      </c>
+      <c r="D826">
+        <v>843</v>
+      </c>
+      <c r="E826" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>68308</v>
+      </c>
+      <c r="B827" s="8">
+        <v>44004</v>
+      </c>
+      <c r="C827">
+        <v>19580</v>
+      </c>
+      <c r="D827">
+        <v>1495</v>
+      </c>
+      <c r="E827" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>71092</v>
+      </c>
+      <c r="B828" s="8">
+        <v>44004</v>
+      </c>
+      <c r="C828">
+        <v>37044</v>
+      </c>
+      <c r="D828">
+        <v>1103</v>
+      </c>
+      <c r="E828" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>892</v>
+      </c>
+      <c r="B829" s="4">
+        <v>44005</v>
+      </c>
+      <c r="C829">
+        <v>366</v>
+      </c>
+      <c r="D829">
+        <v>23</v>
+      </c>
+      <c r="E829" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>9634</v>
+      </c>
+      <c r="B830" s="8">
+        <v>44005</v>
+      </c>
+      <c r="C830">
+        <v>3694</v>
+      </c>
+      <c r="D830">
+        <v>106</v>
+      </c>
+      <c r="E830" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>1337</v>
+      </c>
+      <c r="B831" s="8">
+        <v>44005</v>
+      </c>
+      <c r="C831">
+        <v>961</v>
+      </c>
+      <c r="D831">
+        <v>23</v>
+      </c>
+      <c r="E831" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>11483</v>
+      </c>
+      <c r="B832" s="8">
+        <v>44005</v>
+      </c>
+      <c r="C832">
+        <v>5012</v>
+      </c>
+      <c r="D832">
+        <v>108</v>
+      </c>
+      <c r="E832" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>23388</v>
+      </c>
+      <c r="B833" s="8">
+        <v>44005</v>
+      </c>
+      <c r="C833">
+        <v>9385</v>
+      </c>
+      <c r="D833">
+        <v>855</v>
+      </c>
+      <c r="E833" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>69536</v>
+      </c>
+      <c r="B834" s="8">
+        <v>44005</v>
+      </c>
+      <c r="C834">
+        <v>19935</v>
+      </c>
+      <c r="D834">
+        <v>1516</v>
+      </c>
+      <c r="E834" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>72656</v>
+      </c>
+      <c r="B835" s="8">
+        <v>44005</v>
+      </c>
+      <c r="C835">
+        <v>38401</v>
+      </c>
+      <c r="D835">
+        <v>1124</v>
+      </c>
+      <c r="E835" s="11" t="s">
         <v>7</v>
       </c>
     </row>
